--- a/Observational Papers/Observational_Papers.xlsx
+++ b/Observational Papers/Observational_Papers.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="485">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -26,6 +26,9 @@
     <t xml:space="preserve">Year</t>
   </si>
   <si>
+    <t xml:space="preserve">DOI_Link</t>
+  </si>
+  <si>
     <t xml:space="preserve">Abstract</t>
   </si>
   <si>
@@ -45,6 +48,9 @@
   </si>
   <si>
     <t xml:space="preserve">American Journal of Psychiatry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1176/appi.ajp.2015.15060833</t>
   </si>
   <si>
     <t xml:space="preserve">Objective: Bipolar disorder and disruptive mood dysregulation disorder (DMDD) are clinically and pathophysiologically distinct, yet irritability can be a clinical feature of both illnesses. The authors examine whether the neural mechanisms mediating irritability differ between bipolar disorder and DMDD, using a face emotion labeling paradigm because such labeling is deficient in both patient groups. The authors hypothesized that during face emotion labeling, irritability would be associated with dysfunctional activation in the amygdala and other temporal and prefrontal regions in both disorders, but that the nature of these associations would differ between DMDD and bipolar disorder.
@@ -66,6 +72,9 @@
   </si>
   <si>
     <t xml:space="preserve">Bipolar Disord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1111%2Fbdi.12885</t>
   </si>
   <si>
     <t xml:space="preserve">Objectives
@@ -87,6 +96,9 @@
     <t xml:space="preserve">Epilepsy Behav</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.yebeh.2019.106687</t>
+  </si>
+  <si>
     <t xml:space="preserve">Background: Irritability is a adverse effect of many antiseizure medications (ASMs), but there are no validated measures currently available to characterize this behavioral risk. We examined both child and parent/guardian versions of the Affective Reactivity Index (ARI), a validated measure developed for application in adolescent psychiatry, to determine its sensitivity to ASM-related irritability. We hypothesized irritability increases associated with levetiracetam (LEV) but not lamotrigine (LTG) or oxcarbazepine (OXC).
 Method: The ARI was administered to 71 child and parent/guardian pairs randomized to one of three common ASMs (LEV, LTG, OXC) used to treat new-onset focal (localization-related) epilepsy. Subjects were recruited as part of a prospective multicenter, randomized, open-label, parallel group design. The ARI was administered at baseline prior to treatment initiation and again at 3 months after ASM initiation.
 Results: There was a significant increase in ARI ratings for both child and parent/guardian ratings for LEV but not LTG or OXC when assessed 3 months after treatment initiation. When examined on the individual subject level using a criterion of at least a 3-point ARI increase, there was an increase associated with LEV for child ratings but not parent/guardian scores.
@@ -107,6 +119,9 @@
   </si>
   <si>
     <t xml:space="preserve">J Child Psychol Psychiatry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1111/jcpp.13165</t>
   </si>
   <si>
     <t xml:space="preserve">Background
@@ -125,6 +140,9 @@
     <t xml:space="preserve">Joel T Nigg, Sarah L Karalunas, Hanna C Gustafsson, Priya Bhatt, Peter Ryabinin, Michael A Mooney, Stephen V Faraone, Damien A Fair, Beth Wilmot</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1111/jcpp.13132</t>
+  </si>
+  <si>
     <t xml:space="preserve">Background: A central nosological problem concerns the etiological relationship of emotional dysregulation with ADHD. Molecular genetic risk scores provide a novel method for informing this question.
 Methods: Participants were 514 community-recruited children of Northern European descent age 7-11 defined as ADHD or non-ADHD by detailed research evaluation. Parents-rated ADHD on standardized ratings and child temperament on the Temperament in Middle Childhood Questionnaire (TMCQ) and reported on ADHD and comorbid disorders by semi-structured clinical interview. Categorical and dimensional variables were created for ADHD, emotional dysregulation (implicating disruption of regulation of both anger-irritability and of positive valence surgency-sensation seeking), and irritability alone (anger dysregulation). Genome-wide polygenic risk scores (PRS) were computed for ADHD and depression genetic liability. Structural equation models and computationally derived emotion profiles guided analysis.
 Results: The ADHD PRS was associated in variable-centered analyses with irritability (β = .179, 95% CI = 0.087-0.280; ΔR2 = .034, p &lt; .0002), but also with surgency/sensation seeking (B = .146, 95%CI = 0.052-0.240, ΔR2 =.022, p = .002). In person-centered analysis, the ADHD PRS was elevated in the emotion dysregulation ADHD group versus other ADHD children (OR = 1.44, 95% CI = 1.03-2.20, Nagelkerke ΔR2 = .013, p = .033) but did not differentiate irritable from surgent ADHD profiles. All effects were independent of variation in ADHD severity across traits or groups. The depression PRS was related to oppositional defiant disorder but not to ADHD emotion dysregulation.
@@ -140,6 +158,9 @@
     <t xml:space="preserve">Twin Res Hum Genet</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1017/thg.2019.61</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Children of the Twins Early Development Study (CoTEDS) is a new prospective children-of-twins study in the UK, designed to investigate intergenerational associations across child developmental stages. CoTEDS will enable research on genetic and environmental factors that underpin parent–child associations, with a focus on mental health and cognitive-related traits. Through CoTEDS, we will have a new lens to examine the roles that parents play in influencing child development, as well as the genetic and environmental factors that shape parenting behavior and experiences. Recruitment is ongoing from the sample of approximately 20,000 contactable adult twins who have been enrolled in the Twins Early Development Study (TEDS) since infancy. TEDS twins are invited to register all offspring to CoTEDS at birth, with 554 children registered as of May 2019. By recruiting the second generation of TEDS participants, CoTEDS will include information on adult twins and their offspring from infancy. Parent questionnaire-based data collection is now underway for 1- and 2-year-old CoTEDS infants, with further waves of data collection planned. Current data collection includes the following primary constructs: child mental health, temperament, language and cognitive development; parent mental health and social relationships; parenting behaviors and feelings; and other socioecological factors. Measurement tools have been selected with reference to existing genetically informative cohort studies to ensure overlap in phenotypes measured at corresponding stages of development. This built-in study overlap is intended to enable replication and triangulation of future analyses across samples and research designs. Here, we summarize study protocols and measurement procedures and describe future plans.</t>
   </si>
   <si>
@@ -152,6 +173,9 @@
     <t xml:space="preserve">Neuropsychopharmacology</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1038/s41386-019-0508-3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Irritability is an important dimension of psychopathology that spans multiple clinical diagnostic categories, yet its relationship to patterns of brain development remains sparsely explored. Here, we examined how transdiagnostic symptoms of irritability relate to the development of structural brain networks. All participants (n = 137, 83 females) completed structural brain imaging with 3 Tesla MRI at two timepoints (mean age at follow-up: 21.1 years, mean inter-scan interval: 5.2 years). Irritability at follow-up was assessed using the Affective Reactivity Index, and cortical thickness was quantified using Advanced Normalization Tools software. Structural covariance networks were delineated using non-negative matrix factorization, a multivariate analysis technique. Both cross-sectional and longitudinal associations with irritability at follow-up were evaluated using generalized additive models with penalized splines. The False Discovery Rate (q &lt; 0.05) was used to correct for multiple comparisons. Cross-sectional analysis of follow-up data revealed that 11 of the 24 covariance networks were associated with irritability, with higher levels of irritability being associated with thinner cortex. Longitudinal analyses further revealed that accelerated cortical thinning within nine networks was related to irritability at follow-up. Effects were particularly prominent in brain regions implicated in emotion regulation, including the orbitofrontal, lateral temporal, and medial temporal cortex. Collectively, these findings suggest that irritability is associated with widespread reductions in cortical thickness and accelerated cortical thinning, particularly within the frontal and temporal cortex. Aberrant structural maturation of regions important for emotional regulation may in part underlie symptoms of irritability.</t>
   </si>
   <si>
@@ -164,6 +188,9 @@
     <t xml:space="preserve">Soc Cogn Affect Neurosci</t>
   </si>
   <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1093%2Fscan%2Fnsz053</t>
+  </si>
+  <si>
     <t xml:space="preserve">Irritability is garnering increasing attention in psychiatric research as a transdiagnostic marker of both internalizing and externalizing disorders. These disorders often emerge during adolescence, highlighting the need to examine changes in the brain and in psychological functioning during this developmental period. Adolescents were recruited for a longitudinal study examining the effects of early life stress on the development of psychopathology. The 151 adolescents (73 M/78 F, average age = 11.5 years, standard deviation = 1.1) were scanned with a T1-weighted MRI sequence and parents completed reports of adolescent irritability using the Affective Reactivity Index. Of these 151 adolescents, 94 (46 M/48 F) returned for a second session (average interval = 1.9 years, SD = 0.4). We used tensor-based morphometry to examine cross-sectional and longitudinal associations between irritability and regional brain volume. Irritability was associated with brain volume across a number of regions. More irritable individuals had larger hippocampi, insula, medial orbitofrontal cortex and cingulum/cingulate cortex and smaller putamen and internal capsule. Across the brain, more irritable individuals also had larger volume and less volume contraction in a number of areas that typically decrease in volume over the developmental period studied here, suggesting delayed maturation. These structural changes may increase adolescents’ vulnerability for internalizing and externalizing disorders.</t>
   </si>
   <si>
@@ -173,6 +200,9 @@
     <t xml:space="preserve">David Pagliaccio, Daniel S Pine, Ellen Leibenluft, Olga Dal Monte, Bruno B Averbeck, Vincent D Costa</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1093/scan/nsz041</t>
+  </si>
+  <si>
     <t xml:space="preserve">Few studies have used matched affective paradigms to compare humans and non-human primates. In monkeys with amygdala lesions and youth with anxiety disorders, we examined cross-species pupillary responses during a saccade-based, affective attentional capture task. Given evidence of enhanced amygdala function in anxiety, we hypothesized that opposite patterns would emerge in lesioned monkeys and anxious participants. A total of 53 unmedicated youths (27 anxious, 26 healthy) and 8 adult male rhesus monkeys (Macaca mulatta) completed matched behavioral paradigms. Four monkeys received bilateral excitotoxic amygdala lesions and four served as unoperated controls. Compared to healthy youth, anxious youth exhibited increased pupillary constriction in response to emotional and non-emotional distractors (F(1,48) = 6.28, P = 0.02, η2p = 0.12). Pupillary response was associated significantly with anxiety symptoms severity (F(1,48) = 5.59, P = 0.02, η2p = 0.10). As hypothesized, lesioned monkeys exhibited the opposite pattern i.e. decreased pupillary constriction in response to distractors, compared to unoperated control monkeys (F(1,32) = 24.22, P &lt; 0.001, η2 = 0.33). Amygdala lesioned monkeys and youth with anxiety disorders show opposite patterns of pupil constriction in the context of an affective distractor task. Such findings suggest the presence of altered amygdala circuitry functioning in anxiety. Future lesion and human neuroimaging work might examine the way in which specific amygdala sub-nuclei and downstream circuits mediate these effects.</t>
   </si>
   <si>
@@ -185,6 +215,9 @@
     <t xml:space="preserve">Behav Ther</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.beth.2019.06.005</t>
+  </si>
+  <si>
     <t xml:space="preserve">Children with anxiety disorders often present with other co-occurring symptom clusters, of which irritability is among the most highly co-occurring. Despite compelling clinical and pathophysiological evidence linking anxiety and irritability, little is known regarding the clinical presentation and associated impairment of children with both anxiety and irritability. In this study, our aims were to confirm the preponderance of irritability in clinically anxious children and compare clinically anxious children with irritability to those without irritability across sociodemographic, clinical, psychosocial, and family domains. Participants were 230 children with anxiety disorders (ages 6–14 years) and their mothers, and 91 healthy controls (ages 6–17 years) and their mothers. Of the clinically anxious children, 121 were anxious and irritable; 109 were anxious but not irritable. Irritability levels were significantly higher in the clinically anxious children compared with the healthy controls. Children with anxiety disorders and irritability presented with greater severity and impairment across clinical phenomenology, psychosocial, and family domains relative to anxious children without irritability. Regression analysis findings were convergent in that greater severity and impairment across these same domains predicted higher irritability levels in the children with anxiety disorders. Results support the meaningful distinction between anxious children with and without irritability. Implications of the findings are discussed particularly in regard to assessment and treatment and future research directions are delineated.</t>
   </si>
   <si>
@@ -197,6 +230,9 @@
     <t xml:space="preserve">Pers Individ Dif</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.paid.2019.02.031</t>
+  </si>
+  <si>
     <t xml:space="preserve">Irritability has gained recognition as a clinically significant trait in youth and adults that when persistent and severe, predicts poor outcomes throughout life. However, its definition, measurement, and relationship to similar constructs remain poorly understood. In a community sample of adults (N = 458; 19–74 years; M = 40.5), we sought to identify a unitary irritability factor from independently constructed self-reported measures of irritability distinct from the related constructs of aggression, depression, and anxiety, and whether it was associated with face emotion identification deficits and hostile interpretation biases previously established in clinical pediatric samples. The three measures of irritability generated a common factor characterized by a rapid, angry response to provocation. This irritability factor had unique associations with tendencies to judge ambiguous stimuli as reflecting hostility, but not with face emotion identification performance. These findings clarify the nature of irritability and its associations with neurocognitive phenomenon.</t>
   </si>
   <si>
@@ -212,6 +248,9 @@
     <t xml:space="preserve">PLoS One</t>
   </si>
   <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1371%2Fjournal.pone.0211053</t>
+  </si>
+  <si>
     <t xml:space="preserve">In interpreting attention-deficit/hyperactivity disorder (ADHD) symptoms, categorical and dimensional approaches are commonly used. Both employ binary symptom counts which give equal weighting, with little attention to the combinations and relative contributions of individual symptoms. Alternatively, symptoms can be viewed as an interacting network, revealing the complex relationship between symptoms. Using a novel network modelling approach, this study explores the relationships between the 18 symptoms in the Diagnostic Statistical Manual (DSM-5) criteria and whether network measures are useful in predicting outcomes. Participants were from a community cohort, the Children’s Attention Project. DSM ADHD symptoms were recorded in a face-to-face structured parent interview for 146 medication naïve children with ADHD and 209 controls (aged 6–8 years). Analyses indicated that not all symptoms are equal. Frequencies of endorsement and configurations of symptoms varied, with certain symptoms playing a more important role within the ADHD symptom network. In total, 116,220 combinations of symptoms within a diagnosis of ADHD were identified, with 92% demonstrating a unique symptom configuration. Symptom association networks highlighted the relative importance of hyperactive/impulsive symptoms in the symptom network. In particular, the ‘motoric’-type symptoms as well as interrupts as a marker of impulsivity in the hyperactive domain, as well as loses things and does not follow instructions in the inattentive domain, had high measures of centrality. Centrality-measure weighted symptom counts showed significant association with clinical but not cognitive outcomes, however the relationships were not significantly stronger than symptom count alone. The finding may help to explain heterogeneity in the ADHD phenotype.</t>
   </si>
   <si>
@@ -222,6 +261,9 @@
   </si>
   <si>
     <t xml:space="preserve">J Clin Child Adolesc Psychol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1080/15374416.2018.1514612</t>
   </si>
   <si>
     <t xml:space="preserve">Objective:
@@ -243,6 +285,9 @@
     <t xml:space="preserve">Am J Psychiatry</t>
   </si>
   <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1176%2Fappi.ajp.2018.18040491</t>
+  </si>
+  <si>
     <t xml:space="preserve">Objective:
 Childhood irritability is a common, impairing problem with changing agerelated manifestations that predict long-term adverse outcomes. However, more work is needed on its overall and age-specific neural correlates. Since irritable youth exhibit exaggerated responses to frustrating stimuli, we used a frustrating functional magnetic resonance imaging (fMRI) paradigm to examine associations between irritability and neural activation and tested the moderating effect of age.
 Method:
@@ -262,6 +307,9 @@
     <t xml:space="preserve">Mol Autism</t>
   </si>
   <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1186%2Fs13229-018-0236-2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Background
 Many young people with autism spectrum disorder (ASD) experience emotional and behavioural problems. However, the causes of these co-occurring difficulties are not well understood. Perceptual processing atypicalities are also often reported in individuals with ASD, but how these relate to co-occurring emotional and behavioural problems remains unclear, and few studies have used objective measurement of perceptual processing.
 Methods
@@ -281,6 +329,9 @@
     <t xml:space="preserve">J Am Acad Child Adolesc Psychiatry</t>
   </si>
   <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1016%2Fj.jaac.2018.05.028</t>
+  </si>
+  <si>
     <t xml:space="preserve">Objective.
 Youth with psychiatric disorders distinguished by irritability, including depression and associated trait neuroticism, show deficits in the ability to recognize facial expressions of emotion, particularly happiness. However, the contribution of genetic and environmental factors to this ability remains unknown. The current study examined this trait in twins to assess the genetic and environmental influences on face-emotion recognition abilities and their association with irritability, neuroticism, and depression.
 Method.
@@ -300,6 +351,9 @@
     <t xml:space="preserve">Children (Basel)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://dx.doi.org/10.3390%2Fchildren5040052</t>
+  </si>
+  <si>
     <t xml:space="preserve">Functional abdominal pain disorders (FAPD) are associated with increased emotional problems which, in turn, exacerbate functional impairment. However, irritability, which relates both to internalizing and externalizing problems, has not been specifically examined in these youths. Irritability may be common and adversely impact functioning in pediatric FAPD, particularly for males who are more likely to experience such symptoms. The current study examined the relationship between irritability and psychosocial and pain-related impairment in youth with FAPD. Data were gathered as part of a larger study examining a psychological treatment for youth with FAPD and were compared to previously published data on irritability in healthy controls and in youth with severe emotional dysregulation. For the current study, participants (ages 9–14) with FAPD and caregivers completed measures of child irritability, pain-related and psychosocial functioning, and parent functioning. Pearson correlations revealed significant positive associations between irritability and anxiety, depressive symptoms, pain catastrophizing, and caregiver distress. Results also indicated that parents reported significantly greater irritability in males, but males and females reported similar rates of irritability. Gender moderated the relationship between child-report of irritability and anxiety only. Future research may include tailoring of behavioral intervention approaches for pediatric FAPD to specifically target symptoms of irritability.</t>
   </si>
   <si>
@@ -309,6 +363,9 @@
     <t xml:space="preserve">Kathryn L. Humphreys, Sophie N. F. Schouboe, Katharina Kircanski, Ellen Leibenluft, Argyris Stringaris, Ian H. Gotlib</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1080/15374416.2018.1460847</t>
+  </si>
+  <si>
     <t xml:space="preserve">Irritability is a common feature of many psychiatric disorders, including both externalizing and internalizing disorders. There is little research, however, examining associations between irritability and these symptom domains, particularly during the important developmental period of adolescence, characterized by sex differences in the prevalence of disorders. We examined the cross-sectional associations between irritability, measured with the Affective Reactivity Index, and symptoms of externalizing and internalizing domains of psychopathology, measured with the Youth Self Report, in a volunteer community sample (N = 183) of 9- to 13-year-old (M = 11.39, SD = 1.07) boys and girls (37% White/Caucasian, 8% Asian, 11% Hispanic, 8% African American, 2% Native American, 2% Pacific Islander, 28% Other, and 3% not reported). A subset of the sample (n = 112) provided data at a 2-year follow-up, used to extend these associations. There were no sex differences in levels of irritability; however, the associations between irritability and symptom domains were moderated by sex. Specifically, in girls, irritability was associated equally with externalizing and internalizing symptoms. In contrast, in boys, irritability was associated more strongly with externalizing symptoms than with internalizing symptoms. Thus, across both sexes, irritability was moderately associated with externalizing symptoms, but the association between irritability and internalizing symptoms was stronger in girls than in boys. At follow-up, sex moderated the association between baseline irritability and later externalizing and internalizing symptoms. These findings indicate that irritability is associated with both externalizing and internalizing symptoms in early adolescence and that irritability is associated with internalizing symptoms more strongly in girls than in boys.</t>
   </si>
   <si>
@@ -319,6 +376,9 @@
   </si>
   <si>
     <t xml:space="preserve">JAMA Psychiatry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1001%2Fjamapsychiatry.2018.0468</t>
   </si>
   <si>
     <t xml:space="preserve">Importance
@@ -341,6 +401,9 @@
     <t xml:space="preserve">David Pagliaccio, Daniel S. Pine, Deanna M. Barch, Joan L. Luby, Ellen Leibenluft</t>
   </si>
   <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1016%2Fj.jaac.2018.02.010</t>
+  </si>
+  <si>
     <t xml:space="preserve">Objective
 Cross-sectional, longitudinal, and genetic associations exist between irritability and depression. Prior studies have examined developmental trajectories of irritability, clinical outcomes, and associations with child and familial depression. However, studies have not integrated neurobiological measures. The current study examined developmental trajectories of irritability, clinical outcomes, and cortical structure among preschoolers oversampled for depressive symptoms.
 Method
@@ -360,6 +423,9 @@
     <t xml:space="preserve">Jennifer L. Cecilione, Lance M. Rappaport, Shannon E. Hahn, Audrey E. Anderson, Laura E. Hazlett, Jason R. Burchett, Ashlee A. Moore, Jeanne E. Savage, John M. Hettema, Roxann Roberson-Nay</t>
   </si>
   <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1017%2Fthg.2017.72</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Genetic and Environmental Contributions of Negative Valence Systems to Internalizing Pathways study (also referred to as the Adolescent and Young Adult Twin Study) was designed to examine varying constructs of the negative valence systems as they relate to the development of internalizing disorders from a genetically informed perspective. The goal of this study was to evaluate genetic and environmental contributions to potential psychiatric endophenotypes that contribute to internalizing psychopathology by studying adolescent and young adult twins longitudinally over a two-year period. This report details the sample characteristics, study design, and methodology of this study. The first wave of data collection (i.e., time 1) is complete; the 2-year follow-up (i.e., time 2) is currently underway. A total of 430 twin pairs (N=860 individual twins; 166 monozygotic pairs; 57.2% female) and 422 parents or legal guardians participated at time 1. Twin participants completed self-report surveys and participated in experimental paradigms to assess processes within the negative valence systems. Additionally, parents completed surveys to report on themselves and their twin children. Findings from this study will help clarify the genetic and environmental influences of the negative valence systems and their association with internalizing risk. The goal of this line of research is to develop methods for early internalizing disorder risk detection.
 </t>
   </si>
@@ -374,6 +440,9 @@
     <t xml:space="preserve">Eur Child Adolesc Psychiatry</t>
   </si>
   <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1007%2Fs00787-018-1149-5</t>
+  </si>
+  <si>
     <t xml:space="preserve">It is important to understand new diagnostic entities in classifications of psychopathology such as the Diagnostic and Statistical Manual of Mental Disorders-5 (DSM-5) (code F34.8) construct of Disruptive Mood Dysregulation Disorder (DMDD) and to compare it with possible equivalent disorders in other classificatory systems such as the International Classification of Diseases-10 (ICD-10), which has a category that superficially appears similar, that is, Mixed Disorder of Emotion and Conduct (MDEC) (code F92). In this study, the United Kingdom (UK) arm (UK-LAMS) of the US National Institute of Mental Health (NIMH) supported Longitudinal Assessment of Manic Symptoms (LAMS) multi-site study was used to evaluate and retrospectively construct DMDD and MDEC diagnoses in order to compare them and understand the conditions they co-occur with, in order to improve the clinical understanding. In particular, the phenomenology of UK-LAMS participants (n = 117) was used to determine whether DMDD is a unique entity within the DSM-5. The findings showed that 24 of 68 participants with either DMDD or MDEC (35.3%) fulfilled both diagnostic criteria for DMDD and MDEC, suggesting that these entities do contain overlapping features, particularly symptoms relating to Oppositional Defiant Disorder (ODD)/Conduct Disorder (CD), Attention Deficit Hyperactivity Disorder (ADHD)/Hyperkinetic Disorder (HKD) and/or an anxiety disorder. The data also showed that most of the participants who met DMDD criteria also fulfilled the diagnostic criteria for ODD/CD, ADHD, followed by an anxiety disorder. In this context, this raises the issue whether DMDD is a unique construct or whether the symptomology for DMDD can be better explained as a specifier for ODD/CD and ADHD. Unlike DMDD, MDEC clearly specifies that the label should only be used if emotional and conduct disorders co-exist.
 </t>
   </si>
@@ -382,6 +451,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dr. Jillian Lee Wiggins, Dr. Margaret J. Briggs-Gowan, Dr. Ryne Estabrook, Dr. Melissa A. Brotman, Dr. Daniel S. Pine, Dr. Ellen Leibenluft, Dr. Lauren S. Wakschlag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1016%2Fj.jaac.2017.12.008</t>
   </si>
   <si>
     <t xml:space="preserve">Objective
@@ -400,6 +472,9 @@
     <t xml:space="preserve">Charlotte A. M. Cecil, Eamon J. McCrory, Edward D. Barker, Jo Guiney, Essi Viding</t>
   </si>
   <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1007%2Fs00787-017-1086-8</t>
+  </si>
+  <si>
     <t xml:space="preserve">Growing evidence supports the existence of two variants of youth with high callous–unemotional (CU) traits who present with markedly different risk profiles and outcomes, with potential implications for risk assessment and treatment formulation. So far, studies have identified variants of CU youth mainly using data-driven cluster approaches based on levels of CU traits and co-occurring anxiety. Yet, the extent to which this knowledge may be translated into clinical practice is unclear. To this end, the present study employed a severity-based, cut-off approach to systematically characterise CU groups across a range of clinically informative domains, including trauma history, psychiatric symptomatology, affective functioning, attachment style and behavioural risk. Analyses were based on multi-rated data from a community sample of high-risk youths (n = 155, M = 18 years). Consistent with previous studies, we found that, whereas variants show comparable levels of antisocial behaviour, those who present with both high CU and high anxiety report more severe childhood maltreatment, psychological distress, ADHD symptomatology and behavioural risk—including substance use, suicidal ideation and unsafe sex. In addition, these youth show greater attachment insecurity and affective dysregulation, as indexed by levels of irritability and alexithymia. Together, findings indicate that (1) trauma history is a key factor that differentiates variants of CU youth high vs. low on anxiety, and (2) differences in individual functioning across variants point to the need for tailored clinical assessment tools and intervention strategies. Importantly, the present findings indicate that variants of CU youth can be meaningfully differentiated using cut-off based approaches that parallel methods used in clinical assessments.</t>
   </si>
   <si>
@@ -412,6 +487,9 @@
     <t xml:space="preserve">J Abnorm Child Psychol</t>
   </si>
   <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1007%2Fs10802-017-0272-y</t>
+  </si>
+  <si>
     <t xml:space="preserve">Research on emotion-processing biases in offspring of depressed parents has produced a variety of findings. Child persistent irritability may be a useful clinical feature that demarcates subgroups of offspring with distinct patterns of emotion processing. The present study examined whether early persistent irritability moderated the relationship between maternal lifetime history of a depressive disorder and appetitive- and aversive-emotion processing in 338 never-depressed pre-adolescent children (43.8% female). When children were 3, mothers were interviewed about children’s persistent irritability. Six years later, EEG was recorded while children completed a task in which the late positive potential (LPP), a neural index of emotional reactivity, was measured in response to appetitive, aversive, and neutral images. At both assessments, mothers were interviewed about their own psychopathology. Among offspring of depressed mothers, children characterized by high levels of early persistent irritability showed an enhanced LPP to appetitive and aversive compared to neutral images (i.e., ΔLPP), whereas children with low levels of early irritability showed attenuated ΔLPPs. In offspring of mothers with no history of depression, there was no association between irritability and emotion processing. Findings suggest that persistent irritability influences the pattern of emotion-processing aberrations in offspring of depressed mothers.</t>
   </si>
   <si>
@@ -421,6 +499,9 @@
     <t xml:space="preserve">Dr. Lance M. Rappaport, Dr. Christina Sheerin, Ms. Dever M. Carney, Dr. Kenneth E. Towbin, Dr. Ellen Leibenluft, Dr. Daniel S. Pine, Dr. Melissa A. Brotman, Dr. Roxann Roberson-Nay, Dr. John M. Hettema</t>
   </si>
   <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1016%2Fj.jaac.2017.09.423</t>
+  </si>
+  <si>
     <t xml:space="preserve">ObjectiveHypersensitivity to carbon dioxide (CO2)-enriched air may be a promising risk marker for anxiety disorders. Among adult and adolescent samples, heterogeneity in distress response to the CO2 challenge task indexes three underlying classes of individuals, which distinguish between sustained and acute threat response as markers for internalizing disorders, broadly, and anxiety disorders, specifically. The present study examines latent classes in children’s response to the CO2 challenge task to clarify the association of CO2 hypersensitivity with anxiety and internalizing symptomatology in childhood.MethodHealthy children from a community twin sample (N = 538; 9–13 years) rated anxious distress every 2 minutes while breathing air enriched to 7.5% CO2 for 8 minutes. Latent growth mixture modeling evaluated potential classes of individuals with characteristic trajectories of distress during the task to clarify the association with internalizing disorder symptoms and related traits (e.g., anxiety sensitivity, irritability).ResultsWhile all participants reported increased distress during the task, inter-individual heterogeneity in distress indexed three underlying classes: a consistently low class (“low”), a consistently high class (“high”), and participants who demonstrated markedly increased acute distress (“acute”). Compared to the low class, the high class reported greater internalizing psychopathology, whereas membership in the acute class was associated with experiencing a panic-like event during the task.ConclusionAs in older individuals, three distinct trajectories emerged to capture inter-individual heterogeneity in children’s distress during the CO2 challenge task. These classes were distinguished by clinical validators that reinforce the association of CO2 hypersensitivity and internalizing disorder phenotypes in children.</t>
   </si>
   <si>
@@ -428,6 +509,9 @@
   </si>
   <si>
     <t xml:space="preserve">Candice L. Odgers, Michael A. Russell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1111%2Fjcpp.12763</t>
   </si>
   <si>
     <t xml:space="preserve">Background
@@ -449,6 +533,9 @@
     <t xml:space="preserve">Child Psychiatry Hum Dev</t>
   </si>
   <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1007%2Fs10578-016-0672-1</t>
+  </si>
+  <si>
     <t xml:space="preserve">This study investigated the relationship between self-reported time in bed and sleep quality in association with self-reported internalizing and externalizing symptoms in a sample of 285 elementary school students (52% female) recruited from a rural Midwestern elementary school. Path models were used to estimate proposed associations, controlling for grade level and gender. Curvilinear associations were found between time in bed and anxiety, depressive symptoms, and irritability. Marginal curvilinear trends were found between time in bed and emotion dysregulation, reactive aggression, and proactive aggression. Sleep quality was negatively associated with anxiety, depressive symptoms, irritability, reactive aggression, and delinquency engagement. Gender and grade differences were found across models. Findings suggest that examining self-reported time in bed (both linear and quadratic) and sleep quality is important for understanding internalizing and externalizing symptoms associated with sleep in school-age youth. Incorporating self-reported sleep assessments into clinical practice and school-based evaluations may have implications for a child’s adjustment.</t>
   </si>
   <si>
@@ -459,6 +546,9 @@
   </si>
   <si>
     <t xml:space="preserve">Depress Anxiety</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1002%2Fda.22656</t>
   </si>
   <si>
     <t xml:space="preserve">Background
@@ -477,6 +567,9 @@
     <t xml:space="preserve">David Pagliaccio, Jillian Lee Wiggins, Nancy E. Adleman, Alexa Curhan, Susan Zhang, Kenneth E. Towbin, Melissa A. Brotman, Daniel S. Pine, Ellen Leibenluft</t>
   </si>
   <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1016%2Fj.jaac.2017.02.008</t>
+  </si>
+  <si>
     <t xml:space="preserve">Objective
 Disruptive mood dysregulation disorder (DMDD), characterized by severe irritability, and attention-deficit/hyperactivity disorder (ADHD) are highly comorbid. This is the first study to characterize neural and behavioral similarities and differences in attentional functioning across these disorders.
 Method
@@ -491,6 +584,9 @@
   </si>
   <si>
     <t xml:space="preserve">Joel Stoddard, Wan-Ling Tseng, Pilyoung Kim, Gang Chen, Jennifer Yi, Laura Donahue, Melissa A. Brotman, Kenneth E. Towbin, Daniel S. Pine, Ellen Leibenluft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1001%2Fjamapsychiatry.2016.3282</t>
   </si>
   <si>
     <t xml:space="preserve">IMPORTANCE
@@ -517,6 +613,9 @@
     <t xml:space="preserve">Dev Psychopathol</t>
   </si>
   <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1017%2FS0954579416000626</t>
+  </si>
+  <si>
     <t xml:space="preserve">There is increasing interest among developmental psychopathologists in broad transdiagnostic factors that give rise to a wide array of clinical presentations (multifinality), but little is known about how these processes lead to particular psychopathological manifestations over the course of development. We examined whether individual differences in the error related negativity (ΔERN), a neural indicator of error monitoring, predicts whether early persistent irritability—a prototypical transdiagnostic construct— is associated with later internalizing versus externalizing outcomes. When children were 3 years old, mothers were interviewed about children’s persistent irritability and completed questionnaires about their children’s psychopathology. Three years later, EEG was recorded while children performed a go/no-go task to measure the ΔERN. When children were approximately 9 years old, mothers again completed questionnaires about their children’s psychopathology. Results indicated that among children who were persistently irritable at age 3, an enhanced or more negative ΔERN at age 6 predicted the development of internalizing symptoms at age 9, whereas a blunted or smaller ΔERN at age 6 predicted the development of externalizing symptoms. Our results suggest that variation in error monitoring predicts, and may even shape, the expression of persistent irritability and differentiates developmental trajectories from preschool persistent irritability to internalizing versus externalizing outcomes in middle-late childhood.
 </t>
   </si>
@@ -528,6 +627,9 @@
   </si>
   <si>
     <t xml:space="preserve">J Affect Disord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1016%2Fj.jad.2016.09.016</t>
   </si>
   <si>
     <t xml:space="preserve">Background
@@ -548,6 +650,9 @@
     <t xml:space="preserve">Dever M. Carney, Elizabeth Moroney, Laura Machlin, Shannon Hahn, Jeanne E. Savage, Minyoung Lee, Kenneth A. Towbin, Melissa A. Brotman, Daniel S. Pine, Ellen Leibenluft, Roxann Roberson-Nay, John M. Hettema</t>
   </si>
   <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1017%2Fthg.2016.59</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Twin Study of Negative Valence Emotional Constructs is a multi-site study designed to examine the relationship between a broad selection of potential measures designed to assess putative endophenotypes for negative valence systems (NVS) and early symptoms of internalizing disorders (IDs). In this article, we describe the sample characteristics, data collection protocols, and measures used. Pre-adolescent Caucasian twin pairs were recruited through the Mid-Atlantic Twin Registry; data collection began in February of 2013. Enrolled twins completed various dimensional self-report measures along with cognitive, emotional, and psychophysiological tasks designed to assess NVS function. Parents also completed surveys about their twins and themselves. In addition, a subset of the twins also participated in a neuroimaging protocols. Data collection is in the final stages, and preliminary analyses are underway. The findings will potentially expand our understanding of the mechanisms by which genetic and environmental factors contribute to individual differences in NVS phenotypes and provide new insights into underlying risk factors for IDs.</t>
   </si>
   <si>
@@ -558,6 +663,9 @@
   </si>
   <si>
     <t xml:space="preserve">J Child Adolesc Psychopharmacol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1089%2Fcap.2015.0062</t>
   </si>
   <si>
     <t xml:space="preserve">Objective: The purpose of this study was to examine similarities and differences between disruptive mood dysregulation disorder (DMDD) and bipolar disorder not otherwise specified (BP-NOS) in baseline sociodemographic and clinical characteristics and 36 month course of irritability in children 6–12.9 years of age.
@@ -572,6 +680,9 @@
     <t xml:space="preserve">Gabrielle A. Carlson, Allison P. Danzig, Lea R. Dougherty, Sara J. Bufferd, Daniel N. Klein</t>
   </si>
   <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1089%2Fcap.2015.0072</t>
+  </si>
+  <si>
     <t xml:space="preserve">Background: This study explores the relationship of irritability to tantrums and loss of temper in a community and clinical sample.
 Methods: The community sample, recruited via commercial mailing lists, consisted of 462 6-year-olds whose parents completed the Child Behavior Checklist (CBCL), and Preschool Age Psychiatric Assessment (PAPA). Tantrums were assessed in the oppositional defiant disorder (ODD) section of the PAPA. Irritability was assessed in the depression section to identify persistently irritable and/or angry mood. The clinic sample, drawn from a child psychiatry clinic, included 229 consecutively referred 6-year-olds from 2005 through 2014 whose parents completed the CBCL and Child and Adolescent Symptom Inventory (CASI). Temper loss and irritability items came from the ODD and depression sections of the CASI, and tantrum description was taken from an irritability inventory. Children's Global Assessment Scale (CGAS) and the CBCL Dysregulation Profile were examined in both samples. Logistic and multiple regression were used to compare rates of diagnosis, CBCL subscales, CGAS, and tantrum quality between children with tantrums only and tantrums with irritability.
 Results: Almost half (45.9%) of clinic children had severe tantrums; only 23.8% of those were said to be irritable. In the community, 11% of children had tantrums, but 78.4% of those were called irritable. However, irritability in the clinic, although less common, was associated with aggressive tantrums and substantial impairment. In contrast, irritability was associated with only a relatively small increase in impairment in the community sample.
@@ -585,6 +696,9 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1089%2Fcap.2015.0100</t>
+  </si>
+  <si>
     <t xml:space="preserve">Objective: Irritability in disruptive mood dysregulation disorder (DMDD) may be associated with a biased tendency to judge ambiguous facial expressions as angry. We conducted three experiments to explore this bias as a treatment target. We tested: 1) whether youth with DMDD express this bias; 2) whether judgment of ambiguous faces can be altered in healthy youth by training; and 3) whether such training in youth with DMDD is associated with reduced irritability and associated changes in brain function.
 Methods: Participants in all experiments made happy versus angry judgments of faces that varied along a happy to angry continuum. These judgments were used to quantify a “balance point,” the facial expression at which a participant's judgment switches from predominantly happy to predominantly angry. We first compared balance points in youth with DMDD (n = 63) versus healthy youth (n = 26). We then conducted a double-blind, randomized controlled trial of active versus sham balance-point training in 19 healthy youth. Finally, we piloted open, active balance-point training in 14 youth with DMDD, with 10 completing an implicit functional MRI (fMRI) face-emotion processing task.
 Results: Relative to healthy youth, DMDD youth manifested a shifted balance point, expressed as a tendency to classify ambiguous faces as angry rather than happy. In both healthy and DMDD youth, active training is associated with a shift in balance point toward more happy judgments. In DMDD, evidence suggests that active training may be associated with decreased irritability and changes in activation in the lateral orbitofrontal cortex.
@@ -601,6 +715,9 @@
   </si>
   <si>
     <t xml:space="preserve">BMC Pediatr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1186%2Fs12887-016-0555-4</t>
   </si>
   <si>
     <t xml:space="preserve">Background
@@ -618,6 +735,9 @@
     <t xml:space="preserve">Wan-Ling Tseng, Laura A. Thomas, Elizabeth Harkins, Daniel S. Pine, Ellen Leibenluft, Melissa A. Brotman</t>
   </si>
   <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1093%2Fscan%2Fnsv087</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reproducibility of results is important in improving the robustness of conclusions drawn from research, particularly in functional magnetic resonance imaging (fMRI). In this study, we aim to replicate a previous study on the neural correlates of face emotion processing above and below awareness level using an independent sample of youth with severe mood dysregulation (SMD) and healthy volunteers (HV). We collected fMRI data in 17 SMD and 20 HV, using an affective priming paradigm with masked (17 ms) and unmasked (187 ms) faces (angry, happy, neutral, blank oval). When processing masked and unmasked angry faces, SMD patients exhibited increased activation in the parahippocampal gyrus (PHG) and superior temporal gyrus relative to HV. When processing masked and unmasked happy faces, SMD patients showed decreased activation in the insula, PHG and thalamus compared with HV. During masked face processing in general across emotions, youth with SMD showed greater ventromedial prefrontal cortex (vmPFC) activation relative to HV. Perturbed activation in emotion processing areas (e.g. insula, PHG, superior temporal gyrus and thalamus) manifests as hyper-sensitivity toward negative emotions and hypo-sensitivity toward positive emotions may be important in the etiology and maintenance of irritability, aggression and depressive symptoms in SMD. vmPFC dysfunction may mediate over-reactivity to face emotions associated with irritability.
 </t>
   </si>
@@ -631,6 +751,9 @@
     <t xml:space="preserve">Brain Behav</t>
   </si>
   <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1002%2Fbrb3.339</t>
+  </si>
+  <si>
     <t xml:space="preserve">IntroductionLittle is known about the neural correlates of mood states and the specific physiological changes associated with their valence and duration, especially in young people. Arterial spin labeling (ASL) imaging is particularly well-suited to study sustained cerebral states in young people, due to its robustness to low-frequency drift, excellent interscan reliability, and noninvasiveness. Yet, it has so far been underutilized for understanding the neural mechanisms underlying mood states in youth.MethodsIn this exploratory study, 21 healthy adolescents aged 16 to 18 took part in a mood induction experiment. Neutral, sad, and happy mood states were induced using film clips and explicit instructions. An ASL scan was obtained following presentation of each film clip.ResultsMood induction led to robust changes in self-reported mood ratings. Compared to neutral, sad mood was associated with increased regional cerebral blood flow (rCBF) in the left middle frontal gyrus and anterior prefrontal cortex, and decreased rCBF in the right middle frontal gyrus and the inferior parietal lobule. A decrease in self-reported mood from neutral to sad condition was associated with increased rCBF in the precuneus. Happy mood was associated with increased rCBF in medial frontal and cingulate gyri, the subgenual anterior cingulate cortex, and ventral striatum, and decreased rCBF in the inferior parietal lobule. The level of current self-reported depressive symptoms was negatively associated with rCBF change in the cerebellum and lingual gyrus following both sad and happy mood inductions.ConclusionsArterial spin labeling is sensitive to experimentally induced mood changes in healthy young people. The effects of happy mood on rCBF patterns were generally stronger than the effects of sad mood.</t>
   </si>
   <si>
@@ -638,6 +761,9 @@
   </si>
   <si>
     <t xml:space="preserve">Nina Mikita, Matthew J. Hollocks, Andrew S. Papadopoulos, Alexandra Aslani, Simon Harrison, Ellen Leibenluft, Emily Simonoff, Argyris Stringaris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1111%2Fjcpp.12382</t>
   </si>
   <si>
     <t xml:space="preserve">Background
@@ -660,6 +786,9 @@
     <t xml:space="preserve">J Abnorm Psychol</t>
   </si>
   <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1037%2Fa0037898</t>
+  </si>
+  <si>
     <t xml:space="preserve">The importance of irritability as measured among the symptoms of oppositional defiant disorder (ODD) has dramatically come to the fore in recent years. New diagnostic categories rely on the distinct clinical utility of irritability, and models of psychopathology suggest it plays a key role in explaining developmental pathways within and between disorders into adulthood. However, only a few studies have tested multidimensional models of ODD, and the results have been conflicting. Further, consensus has not been reached regarding which symptoms best identify irritability. The present analyses use data from five large community data sets with five different measures of parent-reported ODD, comprising 16,280 youth in total, to help resolve these questions. Across the samples, ages ranged from 5 to 18, and included both boys and girls. Confirmatory factor analyses demonstrated that a modified bifactor model showed the best fit in each of the five data sets. The structure of the model included two correlated specific factors (irritability and oppositional behavior) in addition to a general ODD factor. In four of the five models, the best fit was obtained using the items of being touchy, angry and often losing temper as indicators of irritability. Given the structure of the models and the generally high correlation between the specific dimensions, the results suggest that irritability may not be sufficiently distinct from oppositional behavior to support an entirely independent diagnosis. Rather, irritability may be better understood as a dimension of psychopathology that can be distinguished within ODD, and which may be related to particular forms of psychopathology apart from ODD.
 </t>
   </si>
@@ -671,6 +800,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dr. Jillian Lee Wiggins, Dr. Colter Mitchell, Dr. Argyris Stringaris, Dr. Ellen Leibenluft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1016%2Fj.jaac.2014.08.005</t>
   </si>
   <si>
     <t xml:space="preserve">Objective
@@ -689,6 +821,9 @@
     <t xml:space="preserve">Dr. Lea R. Dougherty, Ms. Victoria C. Smith, Dr. Sara J. Bufferd, Dr. Argyris Stringaris, Dr. Ellen Leibenluft, Dr. Gabrielle A. Carlson, Dr. Daniel N. Klein</t>
   </si>
   <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1016%2Fj.jaac.2013.09.007</t>
+  </si>
+  <si>
     <t xml:space="preserve">Objective
 There is increasing scientific and clinical attention to chronic irritability in youth. However, little is known about the predictive validity and clinical significance of chronic irritability during early childhood. This prospective, longitudinal study examined associations of chronic irritability with psychiatric disorders and parental psychopathology in a large community sample of preschoolers.
 Method
@@ -705,6 +840,9 @@
     <t xml:space="preserve">Joel Stoddard, Argyris Stringaris, Melissa A Brotman, Daniel Montville, Daniel S Pine, Ellen Leibenluft</t>
   </si>
   <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1002%2Fda.22151</t>
+  </si>
+  <si>
     <t xml:space="preserve">BackgroundOur objective was to compare self- and parent-reported irritability in youths with anxiety disorders, healthy youths, and those with mood disorders characterized by irritability. Irritability is a common but relatively understudied psychiatric symptom in child and adolescent anxiety disorders. In anxious youths, little is known about the severity of irritability, its impact on functioning, or the effect of informant source on reports of irritability.MethodsWe compared parent- and self-report forms of the Affective Reactivity Index (ARI), a validated measure of irritability, in youths ages 8–17 years with no psychopathology (healthy comparison, HC; n = 38), anxiety disorders (ANX; n = 42), bipolar disorder (BD; n = 35), or severe mood dysregulation (SMD; n = 61; a phenotype characterized by chronic, severely impairing irritability).ResultsIrritability was significantly higher in ANX than HC youths by both parent and self-report (partial η2 = 0.24 and 0.22, respectively, P’s &lt; 0.001). Informant effects differed among ANX, BD, and SMD. Overall, parent-reported irritability was higher in BD with comorbid anxiety disorders and SMD with or without comorbid anxiety disorders than ANX (P’s &lt; 0.007), but self-reported irritability was not significantly different among the three patient groups.DiscussionBy both parent and self-report, youths with anxiety disorders exhibit significantly more irritability and associated impairment than healthy subjects. Self-reported irritability in youths with anxiety disorders is comparable to that observed in youths with severe mood disorders, although parental reports of irritability differ among the disorders. Future research should examine the pathophysiology of anxiety-associated irritability, as well as its prognostic and treatment implications.</t>
   </si>
   <si>
@@ -717,6 +855,9 @@
     <t xml:space="preserve">The American Journal of Psychiatry</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1176/appi.ajp.2016.16070839</t>
+  </si>
+  <si>
     <t xml:space="preserve">Although irritability is among the most common reasons that children and adolescents are brought for psychiatric care, there are few effective treatments. Developmentally sensitive pathophysiological models are needed to guide treatment development. In this review, the authors present a mechanistic model of irritability that integrates clinical and translational neuroscience research. Two complementary conceptualizations of pathological irritability are proposed: 1) aberrant emotional and behavioral responding to frustrative nonreward, mediated by reward-system dysfunction; and 2) aberrant approach responding to threat, mediated by threat-system dysfunction. The authors review the pathophysiological literature, including animal studies, as well as experimental psychology and clinical studies. Data suggest that, relative to healthy children, irritable children have deficient reward learning and elevated sensitivity to reward receipt and omission. These deficits are associated with dysfunction in the prefrontal cortex, striatum, and amygdala. Youths with irritability also show maladaptive orienting to, interpreting, and labeling of potential threats, associated with prefrontal cortical and amygdalar dysfunction. Abnormalities in reward and threat processing potentiate one another. Future work should test pathophysiological hypotheses and novel interventions targeting reward- and threat-related dysfunction to improve treatment for severe irritability in youths.</t>
   </si>
   <si>
@@ -727,6 +868,9 @@
   </si>
   <si>
     <t xml:space="preserve">Depression and Anxiety</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1002/da.22336</t>
   </si>
   <si>
     <t xml:space="preserve">Background
@@ -745,6 +889,9 @@
     <t xml:space="preserve">Roxann Roberson-Nay, Ph.D., Ellen Leibenluft, M.D., Melissa A. Brotman, Ph.D., John Myers, M.S., Henrik Larsson, Ph.D., Paul Lichtenstein, Ph.D., Kenneth S. Kendler, M.D.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1176/appi.ajp.2015.14040509</t>
+  </si>
+  <si>
     <t xml:space="preserve">Objective:
 Little is known about genetic influences on juvenile irritability and whether such influences are developmentally stable and/or dynamic. This study examined the temporal pattern of genetic and environmental effects on irritability using data from a prospective, four-wave longitudinal twin study.
 Method:
@@ -764,6 +911,9 @@
     <t xml:space="preserve">Twin Research and Human Genetics</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1017/thg.2012.83</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Genesis 12–19 (G1219) Study is an ongoing longitudinal study of a sample of UK twin pairs, non-twin sibling pairs, and their parents. G1219 was initially designed to examine the role of gene–environment interplay in adolescent depression. However, since then data have continued to be collected from both parents and their offspring into young adulthood. This has allowed for longitudinal analyses of depression and has enabled researchers to investigate multiple phenotypes and to ask questions about intermediate mechanisms. The study has primarily focused on emotional development, particularly depression and anxiety, which have been assessed at multiple levels of analysis (symptoms, cognitions, and relevant environmental experiences). G1219 has also included assessment of a broader range of psychological phenotypes ranging from antisocial behaviors and substance use to sleep difficulties, in addition to multiple aspects of the environment. DNA has also been collected. The first wave of data collection began in the year 1999 and the fifth wave of data collection will be complete before the end of 2012. In this article, we describe the sample, data collection, and measures used. We also summarize some of the key findings to date.</t>
   </si>
   <si>
@@ -774,6 +924,9 @@
   </si>
   <si>
     <t xml:space="preserve">Journal of Child Psychology and Psychiatry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1111/jcpp.12473</t>
   </si>
   <si>
     <t xml:space="preserve">Background
@@ -795,6 +948,9 @@
     <t xml:space="preserve">Journal of the American Academy of Child &amp; Adolescent Psychiatry</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.jaac.2016.08.008</t>
+  </si>
+  <si>
     <t xml:space="preserve">ObjectiveIn both children and adults, psychiatric illness is associated with structural brain alterations, particularly in the prefrontal cortex (PFC). However, most studies compare gray matter volume (GMV) in healthy volunteers (HVs) to one psychiatric group. We compared GMV among youth with anxiety disorders, bipolar disorder (BD), disruptive mood dysregulation disorder (DMDD), attention-deficit/hyperactivity disorder (ADHD), and HVs.Method3-Tesla T1-weighted magnetic resonance imaging scans were acquired in 184 youths (39 anxious, 20 BD, 52 DMDD, 20 ADHD, and 53 HV). Voxel-based morphometry analyses were conducted. One-way analysis of variance tested GMV differences with whole-brain familywise error (p &lt; .05) correction; secondary, exploratory whole-brain analyses used a threshold of p &lt; .001, ≥200 voxels. Given recent frameworks advocating dimensional approaches in psychopathology research, we also tested GMV associations with continuous anxiety, irritability, and inattention symptoms.ResultsSpecificity emerged in the left dorsolateral PFC (dlPFC), which differed among youth with BD, anxiety, and HVs; GMV was increased in youth with anxiety, but decreased in BD, relative to HVs. Secondary analyses revealed BD-specific GMV decreases in the right lateral PFC, right dlPFC, and dorsomedial PFC, and also anxiety-specific GMV increases in the left dlPFC, right ventrolateral PFC, frontal pole, and right parahippocampal gyrus/lingual gyrus. Both BD and DMDD showed decreased GMV relative to HVs in the right dlPFC/superior frontal gyrus. GMV was not associated with dimensional measures of anxiety, irritability, or ADHD symptoms.ConclusionBoth disorder-specific and shared GMV differences manifest in pediatric psychopathology. Some differences were specific to anxiety disorders, others specific to BD, and others shared between BD and DMDD. Further developmental research might map commonalities and differences of structure and function in diverse pediatric psychopathologies.</t>
   </si>
   <si>
@@ -802,6 +958,9 @@
   </si>
   <si>
     <t xml:space="preserve">British Journal of Educational Psychology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1111/bjep.12140</t>
   </si>
   <si>
     <t xml:space="preserve">Background
@@ -827,6 +986,9 @@
     <t xml:space="preserve">Asian Journal of Psychiatry</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.ajp.2016.02.005</t>
+  </si>
+  <si>
     <t xml:space="preserve">Background
 Children with chronic non-episodic irritability were frequently diagnosed as suffering from pediatric bipolar disorder. Therefore in DSM-5 a new diagnosis of Disruptive Mood Dysregulation Disorder (DMDD) was included for such children.
 Aims
@@ -849,6 +1011,9 @@
     <t xml:space="preserve">Journal of Attention Disorders</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1177%2F1087054716664409</t>
+  </si>
+  <si>
     <t xml:space="preserve">Objective: Diagnostic and Statistical Manual of Mental Disorders (5th ed.; DSM-5) disruptive mood dysregulation disorder (DMDD) is a controversial new diagnosis. No studies have investigated DMDD symptoms (irritable-angry mood and temper outbursts) and demographics in general population and psychiatric samples. Method: Maternal ratings of DMDD symptoms and diagnoses, age, gender, IQ, race, and parent occupation were analyzed in general population (n = 665, 6-12 years) and psychiatric samples (n = 2,256, 2-16 years). Results: Percentage of school-age children with DMDD symptoms were 9% general population, 12% ADHD-I, 39% ADHD-C, and 43% autism. Male, nonprofessional parent, and autism with IQ &gt; 80 were associated with increasing DMDD symptoms, but demographics together explained only 2% to 3% of the DMDD score variance. Conclusion: Demographics contributed little to the presence of DMDD symptoms in all groups, whereas oppositional defiant disorder (ODD) explained most of the variance. Almost all children with DMDD symptoms had ODD suggesting that DMDD may not be distinct from ODD.</t>
   </si>
   <si>
@@ -860,6 +1025,9 @@
   </si>
   <si>
     <t xml:space="preserve">Journal of Children's Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1108/JCS-03-2015-0014</t>
   </si>
   <si>
     <t xml:space="preserve">Purpose
@@ -883,6 +1051,9 @@
     <t xml:space="preserve">Personality and Individual Differences</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.paid.2017.02.005</t>
+  </si>
+  <si>
     <t xml:space="preserve">There is increasing interest in describing different variants and subtypes that characterize the heterogeneity of behavior problems with the aim of supporting early detection and prevention, as well as facilitating research into etiological differences. This work examines the course of co-occurrence of callous-unemotional traits (CU), anxiety (ANX) and oppositionality (ODD-s) levels in a longitudinal community sample. A sample of 622 3-year-old preschoolers, followed up until age 7, was assessed annually with dimensional measures of callous-unemotional traits, oppositional defiant disorder and anxiety and related psychological constructs answered by parents, teachers and performed by children. Growth-Mixture-Modeling yielded six trajectories (null 58.9%, ANX-increasing 4.9%, CU + ANX + ODD 2.4%, CU + ODD-decreasing 8.1%, ODD-increasing 16.4%, and ANX-decreasing 9.2%) that represent the variants previously described with older subjects. The specifier ODD “with limited prosocial emotion” (CU + ODD decreasing and increasing) showed deficits in executive functioning, attention, aggressive behavior and social cognition in comparison with null trajectory. The secondary variant showed a more severe clinical picture and presented more difficulties in executive functioning, worse environmental characteristics, and worse outcomes at age 7. It is possible to identify the heterogeneity of disruptive behavior problems from preschool age. The identification of homogeneous groups in this category of disorders may help to design more suitable treatments with specific components for specific difficulties, and to progress in the etiological research of each class.</t>
   </si>
   <si>
@@ -890,6 +1061,9 @@
   </si>
   <si>
     <t xml:space="preserve">Lesley Berk, Karen T Hallam, Kamalesh Venugopal, Andrew James Lewis, David W Austin, Jayashri Kulkarni, Seetal Dodd, Anthony de Castella, Paul B Fitzgerald, Michael Berk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1111/bdi.12486</t>
   </si>
   <si>
     <t xml:space="preserve">Objectives: Many people experience irritability when manic, hypomanic, or depressed, yet its impact on illness severity and quality of life in bipolar and schizoaffective disorders is poorly understood. This study aimed to examine the relationship between irritability and symptom burden, functioning, quality of life, social support, suicidality, and overall illness severity in a naturalistic cohort of people with bipolar I or schizoaffective disorder.
@@ -905,6 +1079,9 @@
   </si>
   <si>
     <t xml:space="preserve">Journal of Affective Disorders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.jad.2018.12.007</t>
   </si>
   <si>
     <t xml:space="preserve">Objective
@@ -926,6 +1103,9 @@
     <t xml:space="preserve">Australian &amp; New Zealand Journal of Psychiatry</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1177/0004867416659365</t>
+  </si>
+  <si>
     <t xml:space="preserve">Objective:
 Irritable mood is common in children with attention-deficit/hyperactivity disorder. Research to date has primarily comprised cross-sectional studies; thus, little is known about the antecedents of irritability. Furthermore, existing cross-sectional studies generally focus on the association between irritability and comorbidities and do not examine broader aspects of functioning. Finally, previous research has neglected to include child-report of irritability. This study aimed to address these gaps using data from a longitudinal study of children with attention-deficit/hyperactivity disorder.
 Method:
@@ -945,6 +1125,9 @@
     <t xml:space="preserve">Behavior Therapy</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.beth.2019.05.006</t>
+  </si>
+  <si>
     <t xml:space="preserve">Severe irritability is a common and clinically important problem longitudinally associated with internalizing and externalizing problems in children. To better understand these mechanisms and to inform treatment research, we tested cognitive-behavioral processes as candidate mediators in the paths from irritability to later problems. Methods: A school sample (N = 238, 48% female, ages 8–10) was assessed at ~6-month intervals in fall (T1) and spring (T2) of third to fourth grade, and again the following fall (T3). Measures assessed irritability (T1/predictor); anger and sadness coping, intolerance of uncertainty, and rumination; (T1–T2/mediators); and anxiety, depressive symptoms, reactive aggression, and oppositionality (T1–T3/outcomes). Focused cross-lagged panel models, controlling for gender and grade, were specified to examine full (XT1 ➔ MT2 ➔ YT3) and half (XT1 ➔ MT2; MT1 ➔ YT2) longitudinal mediation. Across one or more intervals, irritability predicted higher depressive symptoms, anxiety, reactive aggression, oppositionality, intolerance of uncertainty, and poor emotion coping. From T1 irritability to T2/T3 outcomes, mediation was found for poor sadness coping leading to reactive aggression and oppositionality; poor anger coping to anxiety, depressive symptoms, and oppositionality; and intolerance of uncertainty to anxiety. Results offer further evidence for internalizing and externalizing outcomes of youth irritability and new evidence suggesting underlying mechanisms. Irritability may confer risk for externalizing problems via poor sadness/anger coping, and for internalizing problems via poor anger coping and intolerance of uncertainty. Theoretical models and psychosocial treatment should consider addressing regulation of various unpleasant emotions as well as psychological flexibility and tolerating uncertainty.</t>
   </si>
   <si>
@@ -955,6 +1138,9 @@
   </si>
   <si>
     <t xml:space="preserve">Sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1093/sleep/zsz260</t>
   </si>
   <si>
     <t xml:space="preserve">Study Objectives
@@ -973,6 +1159,9 @@
     <t xml:space="preserve">Daniel A. Waschbusch, Raman Baweja, Dara E. Babinski, Susan D. Mayes, James G. Waxmonsky</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.beth.2019.06.007</t>
+  </si>
+  <si>
     <t xml:space="preserve">Affective traits, including irritability and limited prosocial emotions/callous-unemotional traits (LPE/CU), each explain significant variance in youth conduct problems but few studies have examined these constructs simultaneously. This study examined whether irritability, LPE/CU, or their combination explained significant variance in measures of internalizing or externalizing psychopathology, aggression, peer problems, impairment, or parenting. Participants were 219 elementary-school-age children, including 178 with attention-deficit/hyperactivity disorder, oppositional defiant disorder, and/or conduct disorder and 41 typically developing children. Results of analyses showed that irritability and LPE/CU had significant and sometimes unique associations with measures of child behavior, impairment, and parenting. There was also evidence that the interaction between irritability and LPE/CU was significantly associated with aggression and impairment. These findings suggest that irritability and LPE/CU should be examined together when assessing and treating conduct problems in youth.</t>
   </si>
   <si>
@@ -983,6 +1172,9 @@
   </si>
   <si>
     <t xml:space="preserve">Psychological Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0033291717001714</t>
   </si>
   <si>
     <t xml:space="preserve">Background. Severe mood dysregulation is common in childhood and can be highly impairing. The Dysregulation
@@ -1012,6 +1204,9 @@
     <t xml:space="preserve">Julia O. Linke PhD, Nancy E. Adleman PhD, Joelle Sarlls PhD, Andrew Ross BA, Samantha Perlstein BA, Heather R. Frank BA, Kenneth E. Towbin MD, Daniel S. Pine MD, Ellen Leibenluft MD, Melissa A. Brotman PhD</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.jaac.2019.05.035</t>
+  </si>
+  <si>
     <t xml:space="preserve">Objective
 Disruptive mood dysregulation disorder (DMDD) codifies severe, chronic irritability. Youths with bipolar disorder (BD) also present with irritability, but with an episodic course. To date, it is not clear whether aberrant white matter microstructure—a well-replicated finding in BD—can be observed in DMDD and relates to symptoms of irritability.
 Method
@@ -1031,6 +1226,9 @@
     <t xml:space="preserve">Emotion Dysregulation and Emerging Psychopathology</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S095457941900035X</t>
+  </si>
+  <si>
     <t xml:space="preserve">Irritability and anxiety are two common clinical phenotypes that involve high-arousal negative affect states (anger and fear), and that frequently co-occur. Elucidating how these two forms of emotion dysregulation relate to perturbed neurodevelopment may benefit from alternate phenotyping strategies. One such strategy applies a bifactor latent variable approach that can parse shared versus unique mechanisms of these two phenotypes. Here, we aim to replicate and extend this approach and examine associations with neural structure in a large transdiagnostic sample of youth (N = 331; M = 13.57, SD = 2.69 years old; 45.92% male). FreeSurfer was used to extract cortical thickness, cortical surface area, and subcortical volume. The current findings replicated the bifactor model and demonstrate measurement invariance as a function of youth age and sex. There were no associations of youth's factor scores with cortical thickness, surface area, or subcortical volume. However, we found strong convergent and divergent validity between parent-reported irritability and anxiety factors with clinician-rated symptoms and impairment. A general negative affectivity factor was robustly associated with overall functional impairment across symptom domains. Together, these results support the utility of the bifactor model as an alternative phenotyping strategy for irritability and anxiety, which may aid in the development of targeted treatments.</t>
   </si>
   <si>
@@ -1040,6 +1238,9 @@
     <t xml:space="preserve">Karen E. Seymour, Keri S. Rosch, Alyssa Tiedemann, Stewart H. Mostofsky</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.beth.2019.06.009</t>
+  </si>
+  <si>
     <t xml:space="preserve">Irritability refers to a proneness for anger, and is a symptom of internalizing and externalizing psychopathology. Since irritability is associated with significant cross-sectional and longitudinal impairments, research on the behavioral and neural correlates of pediatric irritability in populations at risk for significant irritability is of paramount importance. Irritability can be assessed in the laboratory using behavioral paradigms that elicit frustration. Few behavioral frustration paradigms have been designed to measure the effects of frustration on cognitive control. Therefore, the goal of the present study was to validate a behavioral frustration paradigm for use in school-age children which addressed some of the limitations of prior research. Participants included children, ages 8–12 years, who were either typically developing (TD; n = 38) or diagnosed with attention-deficit/hyperactivity disorder (ADHD; n = 67), which provided a sample of children with a range of baseline irritability. All participants completed the Frustration Go/No-Go (GNG) task, and self-reported irritability was assessed using the Affective Reactivity Index. Results showed that across participants, self-reported frustration, commission error rate, and tau all increased with the addition of frustration, with similar effect sizes in ADHD and TD groups. Further, self-reported irritability, moreso than ADHD symptoms, predicted changes in self-reported frustration during the task. Together, these results support the construct validity of the Frustration GNG task as a means of assessing the effect of frustration on cognitive control. Clinical applications and future directions are discussed.</t>
   </si>
   <si>
@@ -1052,6 +1253,9 @@
     <t xml:space="preserve">Behavioural and Cognitive Psychotherapy</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1017/s1352465815000132</t>
+  </si>
+  <si>
     <t xml:space="preserve">Background: Extreme appraisals of internal states correlate with and prospectively predict mood symptoms in adults, and discriminate individuals with bipolar disorder from individuals with unipolar depression and non-clinical controls. Aims: These findings required replication in adolescents. This study sought to investigate the relationships between appraisals of internal states, mood symptoms and risk for bipolar disorder in an adolescent sample. Method: A non-clinical sample (n = 98) of adolescents completed measures of mood symptoms, appraisals, and mania risk, alongside covariates. Results: Appraisals of internal states were associated with analogue bipolar symptoms, independently of impulsivity and responses to positive affect. Positive appraisals of activated mood states were uniquely associated with hypomania, whilst negative appraisals were uniquely associated with depression and irritability symptoms. Individuals who appraised activated states as both extremely positive and extremely negative were more likely to score at high or moderate risk for future mania. Conclusions: This study is the first to demonstrate associations between appraisals of internal states, analogue mood symptoms and mania risk in adolescents. Clinical implications are discussed.</t>
   </si>
   <si>
@@ -1059,6 +1263,9 @@
   </si>
   <si>
     <t xml:space="preserve">Mariah T. Hawes, Gabrielle A. Carlson, Megan C. Finsaas, Thomas M. Olino, John R. Seely, and Daniel N. Klein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/s0033291719002903</t>
   </si>
   <si>
     <t xml:space="preserve">Background
@@ -1081,6 +1288,9 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.psychres.2020.112789</t>
+  </si>
+  <si>
     <t xml:space="preserve">Irritability and emotional lability have been shown to be severity and impairment factors in community and clinical sample studies and are frequent comorbid features of Attention Deficit Hyperactivity Disorder (ADHD). However, while irritability and emotional lability seem to be closely linked, the differential effect of these two features has received little attention. This study assessed the distinct associations of irritability and emotional lability on symptomatology in children with ADHD. One hundred and eight children diagnosed with ADHD participated in the study. Children were rated by parents on ADHD and comorbid symptomatology with the Conners Rating Scale – Revised. Irritability was the most significant predictive factor of the severity of anxiety and oppositional symptoms. Regarding emotional lability, it was significantly predictive of the severity of hyperactivity symptoms. While emotional lability shares common theoretical characteristics with irritability, each seems to be associated with specific areas. Irritability is a symptom of Oppositional Defiant Disorder, a frequent ADHD comorbidity, and also seems to be related to internalizing disorder (e.g. anxiety). Emotional lability seems to be related to ADHD severity symptoms per se. Both could be clinically informative in the diagnosis of ADHD and its comorbidities.</t>
   </si>
   <si>
@@ -1088,6 +1298,9 @@
   </si>
   <si>
     <t xml:space="preserve">Michael T. Liuzzia, Maria Kryza-Lacombe, Isaac R. Christian, Danielle E. Palumbo, Nader Amir, Jillian Lee Wiggins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.jad.2020.04.049</t>
   </si>
   <si>
     <t xml:space="preserve">Background
@@ -1111,6 +1324,9 @@
     <t xml:space="preserve">Journal of Psychosocial Nursing and Mental Health Services</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.3928/02793695-20180412-02</t>
+  </si>
+  <si>
     <t xml:space="preserve">Attention-deficit/hyperactivity disorder (ADHD) affects functioning of the family, decreasing interactions and loyalty and increasing conflict between adolescents with ADHD and their families. Irritable mood and difficulties with emotional dysregulation are common in children with ADHD. The objective of the current study was to assess levels of irritability in adolescents with ADHD using self- and parent-report scales, and investigate the relationship between irritability levels and parental attitudes. A total of 47 adolescents with ADHD and 39 adolescents with typical development participated in the current study. Findings demonstrated that higher levels of parent-reported irritability were associated with decreased egalitarian attitudes in the ADHD group. Although other parental attitudes were not associated with self- and parent-reported irritability, evaluation of the relationship between parental attitudes and irritability in adolescents with ADHD, which can guide diagnosis and treatment of ADHD, is of critical importance. [Journal of Psychosocial Nursing and Mental Health Services, 56(9), 33–43.]</t>
   </si>
   <si>
@@ -1124,6 +1340,9 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.biopsycho.2019.02.002</t>
+  </si>
+  <si>
     <t xml:space="preserve">Despite increasing interest in the mechanisms of irritability, little research in this domain has been conducted with adults. The present study evaluates relationships among trait irritability, reward responsivity, and frustrative non-reward in a non-clinical sample of young adult females (n = 58) using a paradigm that has been used successfully in pediatric populations with clinically significant irritability. Similar to prior work in these pediatric populations, the frustration manipulation increased self-reported frustration and decreased task accuracy on trials requiring spatial attention shifts. Higher trait irritability was associated with smaller FRN amplitudes to loss feedback. Trait irritability was unrelated to the FRN to reward feedback and the reward positivity ERP. These findings provide preliminary evidence linking irritability with aberrant frustrative non-reward in a healthy young adult sample.</t>
   </si>
   <si>
@@ -1131,6 +1350,9 @@
   </si>
   <si>
     <t xml:space="preserve">Michael J. Toohey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.jad.2019.11.021</t>
   </si>
   <si>
     <t xml:space="preserve">Background
@@ -1151,6 +1373,9 @@
     <t xml:space="preserve">Jonathan Hill, Andrew Pickles, Nicola Wright, Helen Sharp</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.31234/osf.io/7wxrd</t>
+  </si>
+  <si>
     <t xml:space="preserve">Background
 According to fetal origins hypotheses, mismatched prenatal-postnatal conditions will be associated with poor health outcomes. Based on previous findings from the Wirral Child Health and Development Study (WCHADS) that associations between prenatal anxiety and child anxious- depressed symptoms were modified by mothers’ reports of infant stroking, we predicted similar effects following mismatched prenatal-postnatal maternal anxiety. Low stroking would be associated with poorer outcome. In view of associations between oppositional defiant disorder (ODD) irritability and adolescent depression, our models predicted irritability, controlling for general psychopathology ‘p’, and contrasted with headstrong, to test for specificity. Based on animal and human evidence we predicted that the effect would be seen only in girls.
 Methods
@@ -1167,6 +1392,9 @@
     <t xml:space="preserve">Ellen M. Kessel, Allison Frost, Brandon L. Goldstein, Sarah R. Black, Lea R. Dougherty, Gabrielle A. Carlson and Daniel N. Klein</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0033291719003684</t>
+  </si>
+  <si>
     <t xml:space="preserve">Background
 Early irritability predicts a broad spectrum of psychopathology spanning both internalizing and externalizing disorders, rather than any particular disorder or group of disorders (i.e. multifinality). Very few studies, however, have examined the developmental mechanisms by which it leads to such phenotypically diverse outcomes. We examined whether variation in the diurnal pattern of cortisol moderates developmental pathways between preschool irritability and the subsequent emergence of internalizing and externalizing symptoms 9 years later.
 Method
@@ -1177,9 +1405,6 @@
 Our results suggest that variation in stress system functioning can predict and differentiate developmental trajectories of early irritability that are relatively more internalizing v. those in which externalizing symptoms dominate in pre-adolescence.</t>
   </si>
   <si>
-    <t xml:space="preserve">ARI refereced in paper</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tentative de suicide chez l'enfant et l'adolescent et bipolarité</t>
   </si>
   <si>
@@ -1187,6 +1412,9 @@
   </si>
   <si>
     <t xml:space="preserve">L'Encéphale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.encep.2017.01.003</t>
   </si>
   <si>
     <t xml:space="preserve">Background
@@ -1205,6 +1433,9 @@
     <t xml:space="preserve">Karen E. Seymour, PhD, Keri S. Rosch, PhD, Stewart H. Mostofsky, MD</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.jaac.2018.09.147</t>
+  </si>
+  <si>
     <t xml:space="preserve">Poor frustration tolerance is a significant impairment in children with ADHD. During frustrating tasks, children with ADHD show greater levels of frustration, are more likely to quit the task, and focus more on the negative aspects of the task compared with typically developing control (TDC) subjects. However, little is known about how frustration affects neurocognitive deficits such as response control in children with ADHD. The current study examined the effect of frustration on response control using a novel frustration paradigm.</t>
   </si>
   <si>
@@ -1215,6 +1446,9 @@
   </si>
   <si>
     <t xml:space="preserve">Scientific Reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1038/s41598-020-66892-z</t>
   </si>
   <si>
     <t xml:space="preserve">Introduction: The present study examines the relationships between processing speed (PS), mental health disorders, and learning disorders. Prior work has tended to explore relationships between PS deficits and specific diagnoses in isolation of one another. Here, we simultaneously investigated PS associations with five diagnoses (i.e., anxiety, autism, ADHD, depressive, specific learning) in a large-scale, transdiagnostic, community self-referred sample. Method. 843 children, ages 8–16 were included from the Healthy Brain Network (HBN) Biobank. Principal component analysis (PCA) was employed to create a composite measure of four PS tasks, referred to as PC1. Intraclass correlation coefficient (ICC) between the four PS measures, as well as PC1, were calculated to assess reliability. Results. ICCs were moderate between WISC-V tasks (0.663), and relatively modest between NIH Toolbox Pattern Comparison and other PS scales (0.14–0.27). Regression analyses revealed specific significant relationships between PS and reading and math disabilities, ADHD-inattentive presentation (ADHD-I), and ADHD-combined presentation (ADHD-C). After accounting for inattention, the present study did not find a significant relationship with Autism Spectrum Disorder. Discussion. Our examination of PS in a large, transdiagnostic sample suggested more specific associations with ADHD and learning disorders than the literature currently suggests. Implications for understanding how PS interacts with a highly heterogeneous childhood sample are discussed.</t>
@@ -1229,6 +1463,9 @@
   <si>
     <t xml:space="preserve">Journal of Child and
 Adolescent Psychopharmacology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1089/cap.2015.0100</t>
   </si>
   <si>
     <t xml:space="preserve">Objectives
@@ -1269,6 +1506,9 @@
     <t xml:space="preserve">Zeitschrift für Kinder- und Jugendpsychiatrie und Psychotherapie</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1024/1422-4917/a000479</t>
+  </si>
+  <si>
     <t xml:space="preserve">Objective: A considerable number of adolescents exhibit severe self-regulation defi cits in affect and behavior, which are referred to as
 affective dysregulation (AD). AD may be conceptualized as a dimensional trait that, in its extreme form, resembles the diagnostic categories of
 severe mood dysregulation (SMD) or disruptive mood dysregulation disorder (DMDD). Assuming a shared pathway of psychopathology in AD and
@@ -1285,6 +1525,9 @@
     <t xml:space="preserve">Kathleen I. Crum, Soonjo Hwang, Karina S. Blair, Joseph M. Aloi, Harma Meffert, Stuart F. White, Patrick M. Tyler, Ellen Leibenluft, Kayla Pope and R. J. R. Blair</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0033291720001397</t>
+  </si>
+  <si>
     <t xml:space="preserve">Background
 Irritability and anxiety frequently co-occur in pediatric populations. Studies separately looking at the neural correlates of these symptoms have identified engagement of similar neural systems – particularly those implicated in emotional processing. Both irritability and anxiety can be considered negative valence emotional states that might relate to emotion dysregulation. However, previous work has not examined the neural responding during the performance of an emotion regulation task as a function of interaction between irritability and anxiety simultaneously.
 Methods
@@ -1304,6 +1547,9 @@
     <t xml:space="preserve">International Journal of Disability, Development and Education</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1080/1034912X.2020.1755426</t>
+  </si>
+  <si>
     <t xml:space="preserve">Emotion dysregulation is a common social functioning deficit in children with attention-deficit/hyperactivity disorder (ADHD). Little is known about how teachers rate irritability in school-aged children with ADHD. We examined irritability and disruptive behaviour in clinic-referred school-aged children (n = 145) with ADHD. Children in this cross-sectional study were 6–12 years old (Mage = 9.2 years, 16.6% female). We obtained ratings from children themselves as well as their mothers, fathers, and teachers at the baseline of a family intervention program. Descriptive statistics and multilevel regression models were employed. Children displayed increased irritability, such as frequent temper outbursts, when compared with population sample peers. Children’s proneness to anger was strongly associated with perceived peer difficulties particularly in teacher ratings. Findings highlight the significance of home- and school-based support when considering social functioning in children with neurodevelopmental conditions.</t>
   </si>
   <si>
@@ -1322,6 +1568,9 @@
     <t xml:space="preserve">Journal of Psychopathology and Behavioral Assessment</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1007/s10862-020-09798-4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Oppositional behavior, irritability, and aggression are common in autism and ADHD-Combined presentation (but less frequent in ADHD-Inattentive), and children with autism are at high risk for anxiety. No study has compared sex differences in externalizing and internalizing symptoms between ADHD-Combined, ADHD-Inattentive, autism, and general population samples. The samples comprised 1436 children with autism (with or without ADHD), 1056 with ADHD without autism, and 665 from the general population, 2–17 years. Nine externalizing, four internalizing, and nine somatic symptoms rated by mothers on the Pediatric Behavior Scale did not differ significantly between girls and boys in the autism, ADHD-Combined, and ADHD-Inattentive samples. In the general population, boys had more externalizing problems than girls (particularly hyperactivity, inattention, and aggression), whereas anxiety, depression, and somatic complaints did not differ, with the exception of more stomachaches in girls. The finding that boys have more externalizing problems than girls in the general population has implications for interpreting rating scales. Raw score to standard score conversions for most scales are based on general population sex- and age-specific norms. Therefore, standard scores mask sex differences, and the same standard score for a girl and a boy is not equivalent. A boy must have more severe externalizing problems to earn the same elevated standard score as a girl. When making diagnostic and treatment decisions, clinicians should take into consideration both symptom raw scores (e.g., “often a problem” reflecting symptom severity and the DSM threshold for clinical significance) and standard scores (symptom severity adjusted for sex and age effects).</t>
   </si>
   <si>
@@ -1329,6 +1578,9 @@
   </si>
   <si>
     <t xml:space="preserve">Maria Kryza‐Lacombe, Cynthia Kiefer, Karen T.G. Schwartz, Katie Strickland, Jillian Lee Wiggins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1002/da.23010</t>
   </si>
   <si>
     <t xml:space="preserve">Background
@@ -1350,6 +1602,9 @@
     <t xml:space="preserve">International Journal of Developmental Disabilities</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1080/20473869.2019.1634935</t>
+  </si>
+  <si>
     <t xml:space="preserve">The aim of this study was to investigate the psychiatric disorders that accompany mild intellectual disability (ID) in school-aged children in a clinical setting. The Kiddie Schedule for Affective Disorders and Schizophrenia for School-Age Children-Present and Lifetime Version interview was conducted with the children with mild ID and their parents to diagnose any comorbid disorders. The mean age of the 111 children that fulfilled the study criteria was 12.09 ± 3.28 years, 59 of them (53.2%) were males, and 80.2% had at least one lifetime comorbid psychiatric diagnosis. Attention deficit hyperactivity disorder (64.9%), oppositional defiant disorder (21.6%), anxiety disorders (18.0%), were the most common comorbidities. The correlates of exhibiting comorbid psychiatric disorder were being male and irritability symptoms in the clinical history. Being aware of the comorbid psychiatric disorders and planning treatment strategies toward all of the diagnoses may help in the adaptation and rehabilitation of children with mild IDs.</t>
   </si>
   <si>
@@ -1360,6 +1615,9 @@
   </si>
   <si>
     <t xml:space="preserve">Child and Adolescent Mental Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1111/camh.12399</t>
   </si>
   <si>
     <t xml:space="preserve">Background
@@ -1376,6 +1634,9 @@
   </si>
   <si>
     <t xml:space="preserve">Eliza Kramer, Bonhwang Koo, Anita Restrepo, Maki Koyama, Rebecca Neuhaus, Kenneth Pugh, Charissa Andreotti, Michael Milham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1101/743021</t>
   </si>
   <si>
     <t xml:space="preserve">ABSTRACT
@@ -1417,6 +1678,9 @@
     <t xml:space="preserve">Neurological Sciences</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1007/s10072-020-04331-7</t>
+  </si>
+  <si>
     <t xml:space="preserve">Objective
 The aim of this study was to investigate self- and parent-reported irritability in adolescents with migraine and to evaluate the relationship between self- and parent-reported irritability and psychological symptoms in adolescents with migraine.
 Methods
@@ -1433,6 +1697,9 @@
     <t xml:space="preserve">Christen M. Deveney, Alexandra L. Roule, Rachel A. Wulff</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.paid.2019.109751</t>
+  </si>
+  <si>
     <t xml:space="preserve">Difficulty labeling facial expressions and tendencies to interpret ambiguous faces as hostile are potential mechanisms of irritability. However, most research into social cue processing and irritability has been conducted in pediatric populations, has not examined the role of affective context, and has not accounted for co-occurring constructs independently associated with social cue processing. The present study investigates how an experimental frustration manipulation impacts associations between trait irritability and social cue processing among non-clinical adult females (N = 100). Higher trait irritability was associated with difficulties identifying happy and disgust faces on a dynamic face task following frustration. Replicating prior work, higher trait irritability was associated with hostile interpretations of ambiguous social scenarios. These associations persisted after accounting for aggression, anxiety, and depression. These findings suggest that trait irritability and social cue processing associations in adults vary across tasks and affective contexts.</t>
   </si>
   <si>
@@ -1445,6 +1712,9 @@
     <t xml:space="preserve">Journal of Abnormal Child Psychology</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1007/s10802-020-00658-z</t>
+  </si>
+  <si>
     <t xml:space="preserve">Anxiety and irritability symptoms frequently co-occur in children with Attention-Deficit/Hyperactivity Disorder (ADHD). This study aims to investigate whether irritability and anxiety are uniquely associated with performance on measures of cognitive functioning in children with ADHD and whether these associations hold when accounting for confounding variables. Baseline data was used from a randomised controlled trial of cognitive behavioural therapy for anxiety in children with ADHD (N = 219, 8–13 years). Anxiety was assessed using the child- and parent-reported Spence Children’s Anxiety Scale, while irritability was assessed using the parent-reported Affective Reactivity Index. Children completed the National Institutes of Health Toolbox - Cognition Battery. Higher symptoms of anxiety were uniquely associated with performance on the Dimensional Card Change Sort Test (β = −2.75, confidence interval (CI) [−4.97, −.52], p = .02) and the List Sort Working Memory Test (β = −2.57, CI [−4.43, −.70], p = .01), while higher symptoms of irritability were negatively associated with Picture Vocabulary Test (β = −2.00, CI [−3.83, −.16], p = .03). These associations did not survive correction for multiple comparisons. There was little evidence of an association between anxiety or irritability symptoms and cognitive functioning. Frequent co-occurrence of anxiety and irritability suggests clinicians working with children with ADHD should assess co-morbid symptom profiles to inform the provision of optimum care.</t>
   </si>
   <si>
@@ -1452,6 +1722,9 @@
   </si>
   <si>
     <t xml:space="preserve">John M. Hettema  Jessica L. Bourdon  Chelsea Sawyers  Brad Verhulst  Melissa A. Brotman  Ellen Leibenluft  Daniel S. Pine  Roxann Roberson‐Nay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1002/da.23024</t>
   </si>
   <si>
     <t xml:space="preserve">Background
@@ -1473,6 +1746,9 @@
     <t xml:space="preserve">Development and Psychopathology</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0954579419001329</t>
+  </si>
+  <si>
     <t xml:space="preserve">Early behaviors that differentiate later biomarkers for psychopathology can guide preventive efforts while also facilitating pathophysiological research. We tested whether error-related negativity (ERN) moderates the link between early behavior and later psychopathology in two early childhood phenotypes: behavioral inhibition and irritability. From ages 2 to 7 years, children (n = 291) were assessed longitudinally for behavioral inhibition (BI) and irritability. Behavioral inhibition was assessed via maternal report and behavioral responses to novelty. Childhood irritability was assessed using the Child Behavior Checklist. At age 12, an electroencephalogram (EEG) was recorded while children performed a flanker task to measure ERN, a neural indicator of error monitoring. Clinical assessments of anxiety and irritability were conducted using questionnaires (i.e., Screen for Child Anxiety Related Disorders and Affective Reactivity Index) and clinical interviews. Error monitoring interacted with early BI and early irritability to predict later psychopathology. Among children with high BI, an enhanced ERN predicted greater social anxiety at age 12. In contrast, children with high childhood irritability and blunted ERN predicted greater irritability at age 12. This converges with previous work and provides novel insight into the specificity of pathways associated with psychopathology.</t>
   </si>
   <si>
@@ -1485,6 +1761,10 @@
     <t xml:space="preserve">Translational Psychiatry</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1038/s41398-020-00894-3
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extensive heterogeneity in autism spectrum disorder (ASD) has hindered the characterization of consistent biomarkers, which has led to widespread negative results. Isolating homogenized subtypes could provide insight into underlying biological mechanisms and an overall better understanding of ASD. A total of 1093 participants from the population-based “Healthy Brain Network” cohort (Child Mind Institute in the New York City area, USA) were selected based on score availability in behaviors relevant to ASD, aged 6–18 and IQ &gt;= 70. All participants underwent an unsupervised clustering analysis on behavioral dimensions to reveal subgroups with ASD traits, identified by the presence of social deficits. Analysis revealed three socially impaired ASD traits subgroups: (1) high in emotionally dysfunctional traits, (2) high in ADHD-like traits, and (3) high in anxiety and depressive symptoms. 527 subjects had good quality structural MRI T1 data. Site effects on cortical features were adjusted using the ComBat method. Neuroimaging analyses compared cortical thickness, gyrification, and surface area, and were controlled for age, gender, and IQ, and corrected for multiple comparisons. Structural neuroimaging analyses contrasting one combined heterogeneous ASD traits group against controls did not yield any significant differences. Unique cortical signatures, however, were observed within each of the three individual ASD traits subgroups versus controls. These observations provide evidence of ASD traits subtypes, and confirm the necessity of applying dimensional approaches to extract meaningful differences, thus reducing heterogeneity and paving the way to better understanding ASD traits.</t>
   </si>
   <si>
@@ -1495,6 +1775,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pre-proof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.jaac.2019.11.028</t>
   </si>
   <si>
     <t xml:space="preserve">Abstract
@@ -1515,6 +1798,9 @@
   </si>
   <si>
     <t xml:space="preserve">Journal of Child and Adolescent Psychopharmacology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1089/cap.2020.0001</t>
   </si>
   <si>
     <t xml:space="preserve">Objectives: Temporal reward discounting impulsivity (TDI) reflects a propensity to choose smaller immediate rather than larger delayed rewards relative to age/IQ-matched peers. Previous work with adults has linked TDI to an increased risk for antisocial behavior but also psychopathology in general. However, little work has examined TDI in adolescents with conduct disorder (CD), or considered whether TDI might be associated dimensionally with traits associated with antisocial behavior, that is, impulsivity, irritability, and/or callous–unemotional traits. In this study TDI was investigated in a large adolescent group with varying levels of antisocial behavior.
@@ -1560,6 +1846,9 @@
     <t xml:space="preserve">Eleanor Leigh, Ailsa Lee, Hannah M. Brown, Simone Pisano &amp; Argyris Stringaris</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1007/s10802-020-00706-8</t>
+  </si>
+  <si>
     <t xml:space="preserve">Although youth irritability is linked with substantial psychiatric morbidity and impairment, little is known about how personal characteristics influence its course. In this study we examined the prospective associations between angry and depressive rumination and irritability. A sample of 165 school pupils aged 12–14 years were assessed at two time points six months apart. They completed measures of irritability at Times 1 and 2 and depressive and angry rumination at Time 1. In line with our hypotheses, we found that angry rumination is significantly associated with irritability six months later, over and above baseline irritability and depressive rumination. The present findings suggest angry rumination is relevant to the genesis of irritability in adolescents, and point to possible routes for prevention and early intervention.</t>
   </si>
   <si>
@@ -1570,6 +1859,9 @@
   </si>
   <si>
     <t xml:space="preserve">UNDER REVIEW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.21203/rs.3.rs-96188/v1</t>
   </si>
   <si>
     <t xml:space="preserve">Background: Irritability is a common and impairing occurrence in autistic youth, yet the underlying mechanisms are not well known. In typically developing populations, differences in frustration response have been suggested as important driver of the behavioural symptoms of irritability. Research exploring the role of frustration response as a risk factor for irritability in autistic populations is limited and often uses on parent report or observer ratings; objective measures of frustration response appropriate for use in autistic populations are required to advance the field.
@@ -1587,6 +1879,9 @@
     <t xml:space="preserve">Behaviour Research and Therapy</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.brat.2020.103779</t>
+  </si>
+  <si>
     <t xml:space="preserve">This study utilised a person-centered approach to understand childhood irritability as a transdiagnostic feature of psychopathology. Latent profile analysis was employed within a community sample (n = 93) of 9–11 year olds to identify typologies of self-regulation capabilities, positive wellbeing characteristics of hope and flourishing, and social functioning that cluster with children's irritability to mitigate risk for psychopathology symptoms. Three distinct profiles of youth were derived, High Irritability/Low Self-Regulation of Negative Emotion (9%), Moderate Irritability/Low Behavioural Control (34%) and Low Irritability/High Positive Wellbeing Characteristics (57%). Profiles were empirically validated and differentially related to symptoms of anxiety, depression and conduct problems. Notably, High Irritability/Low Self-Regulation of Negative Emotion children were characterised by the highest levels of irritability and peer problems and the lowest self-regulation of negative emotion, prosocial behaviours, hope and flourishing relative to children within the other profiles, pointing to the potential utility of future targeted, transdiagnostic interventions. Within our community-based sample, a protective profile of Low Irritability/High Positive Wellbeing Characteristics children were also described by the lowest levels of irritability and peer problems and the highest positive and negative emotion self-regulation, behavioural control, prosocial behaviours, hope and flourishing. Findings demonstrate that different levels of irritability severity cluster with different self-regulation capabilities and wellbeing characteristics and predict risk for different types of psychopathology. Targeted interventions should seek to address children's irritability alongside self-regulation and positive wellbeing characteristics to further mitigate risks of psychopathology and associated problems.</t>
   </si>
   <si>
@@ -1597,6 +1892,9 @@
   </si>
   <si>
     <t xml:space="preserve">Research on Child and Adolescent Psychopathology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1007/s10802-020-00723-7</t>
   </si>
   <si>
     <t xml:space="preserve">Irritability is common in Attention-Deficit Hyperactivity Disorder (ADHD), but little is known about whether irritability predicts the course of ADHD symptoms over time. Adolescence is a dynamic period of emotional development as well as shifts in ADHD symptoms; an important goal is to identify youth at risk of increasing or persisting symptoms. We examined irritability as a longitudinal predictor of change in adolescents’ ADHD symptoms, as well as how this link may differ in females versus males. The sample included 108 youth (72 males) age 12–16 years (M = 14.21 years, SD = 1.44 years), 62 of whom met criteria for ADHD. Approximately 18 months later, 80 participants (48 males) were followed up at Time 2. A dimensional approach was used to examine changes over time in parent-reported inattentive and hyperactive/impulsive symptoms. Longitudinal path analysis revealed that irritability at Time 1 predicted higher relative hyperactive/impulsive symptoms at Time 2 after controlling for age and longitudinal stability in all variables. A multiple-group analysis examining moderation by sex/gender revealed that this association was significant only for females. These results suggest that irritability may play a key role in the persistence and worsening of hyperactive/impulsive symptoms across adolescence for females, with potential implications for the diagnosis and treatment of females with ADHD.</t>
@@ -1956,2470 +2254,2775 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
         <v>2016</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2"/>
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
         <v>2020</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3"/>
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
         <v>2020</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
         <v>2019</v>
       </c>
       <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
         <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
         <v>2020</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D7" t="n">
         <v>2019</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7"/>
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D8" t="n">
         <v>2019</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8"/>
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D9" t="n">
         <v>2019</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9"/>
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D10" t="n">
         <v>2019</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10"/>
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D11" t="n">
         <v>2020</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11"/>
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D12" t="n">
         <v>2019</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D13" t="n">
         <v>2019</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D14" t="n">
         <v>2021</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14"/>
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D15" t="n">
         <v>2019</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15"/>
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="D16" t="n">
         <v>2018</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16"/>
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D17" t="n">
         <v>2018</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17"/>
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D18" t="n">
         <v>2018</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18"/>
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D19" t="n">
         <v>2019</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19"/>
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D20" t="n">
         <v>2018</v>
       </c>
       <c r="E20" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20"/>
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D21" t="n">
         <v>2018</v>
       </c>
       <c r="E21" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="F21" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21"/>
+        <v>110</v>
+      </c>
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D22" t="n">
         <v>2018</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22"/>
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="D23" t="n">
         <v>2018</v>
       </c>
       <c r="E23" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="F23" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23"/>
+        <v>110</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D24" t="n">
         <v>2018</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24"/>
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="D25" t="n">
         <v>2018</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25"/>
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="C26" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="D26" t="n">
         <v>2017</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26"/>
+        <v>14</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D27" t="n">
         <v>2017</v>
       </c>
       <c r="E27" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27"/>
+        <v>14</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D28" t="n">
         <v>2017</v>
       </c>
       <c r="E28" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28"/>
+        <v>14</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D29" t="n">
         <v>2017</v>
       </c>
       <c r="E29" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29"/>
+        <v>14</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="D30" t="n">
         <v>2017</v>
       </c>
       <c r="E30" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30"/>
+        <v>14</v>
+      </c>
+      <c r="H30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D31" t="n">
         <v>2017</v>
       </c>
       <c r="E31" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31"/>
+        <v>14</v>
+      </c>
+      <c r="H31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D32" t="n">
         <v>2017</v>
       </c>
       <c r="E32" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32"/>
+        <v>14</v>
+      </c>
+      <c r="H32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="B33" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="C33" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="D33" t="n">
         <v>2016</v>
       </c>
       <c r="E33" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33"/>
+        <v>14</v>
+      </c>
+      <c r="H33" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="B34" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="C34" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="D34" t="n">
         <v>2017</v>
       </c>
       <c r="E34" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34"/>
+        <v>14</v>
+      </c>
+      <c r="H34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="B35" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D35" t="n">
         <v>2017</v>
       </c>
       <c r="E35" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35"/>
+        <v>14</v>
+      </c>
+      <c r="H35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="B36" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="C36" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="D36" t="n">
         <v>2016</v>
       </c>
       <c r="E36" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36"/>
+        <v>14</v>
+      </c>
+      <c r="H36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="B37" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="C37" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="D37" t="n">
         <v>2016</v>
       </c>
       <c r="E37" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="F37" t="s">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37"/>
+        <v>110</v>
+      </c>
+      <c r="H37" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="B38" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="C38" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="D38" t="n">
         <v>2016</v>
       </c>
       <c r="E38" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>148</v>
+        <v>15</v>
+      </c>
+      <c r="I38" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="B39" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="C39" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="D39" t="n">
         <v>2016</v>
       </c>
       <c r="E39" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39"/>
+        <v>14</v>
+      </c>
+      <c r="H39" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="B40" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D40" t="n">
         <v>2016</v>
       </c>
       <c r="E40" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40"/>
+        <v>14</v>
+      </c>
+      <c r="H40" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="B41" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="C41" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="D41" t="n">
         <v>2015</v>
       </c>
       <c r="E41" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41"/>
+        <v>14</v>
+      </c>
+      <c r="H41" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="B42" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D42" t="n">
         <v>2015</v>
       </c>
       <c r="E42" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42"/>
+        <v>14</v>
+      </c>
+      <c r="H42" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="B43" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="C43" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="D43" t="n">
         <v>2014</v>
       </c>
       <c r="E43" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="F43" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43"/>
+        <v>210</v>
+      </c>
+      <c r="H43" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="B44" t="s">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c r="C44" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D44" t="n">
         <v>2014</v>
       </c>
       <c r="E44" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="F44" t="s">
-        <v>89</v>
+        <v>214</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44"/>
+        <v>110</v>
+      </c>
+      <c r="H44" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
       <c r="B45" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="C45" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D45" t="n">
         <v>2013</v>
       </c>
       <c r="E45" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>218</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45"/>
+        <v>14</v>
+      </c>
+      <c r="H45" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="B46" t="s">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="C46" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="D46" t="n">
         <v>2014</v>
       </c>
       <c r="E46" t="s">
-        <v>176</v>
+        <v>221</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46"/>
+        <v>14</v>
+      </c>
+      <c r="H46" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="B47" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="C47" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="D47" t="n">
         <v>2017</v>
       </c>
       <c r="E47" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="F47" t="s">
-        <v>89</v>
+        <v>227</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
-      </c>
-      <c r="H47"/>
+        <v>110</v>
+      </c>
+      <c r="H47" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="B48" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="C48" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="D48" t="n">
         <v>2014</v>
       </c>
       <c r="E48" t="s">
-        <v>184</v>
+        <v>231</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48"/>
+        <v>14</v>
+      </c>
+      <c r="H48" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>185</v>
+        <v>233</v>
       </c>
       <c r="B49" t="s">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="C49" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="D49" t="n">
         <v>2015</v>
       </c>
       <c r="E49" t="s">
-        <v>187</v>
+        <v>235</v>
       </c>
       <c r="F49" t="s">
-        <v>89</v>
+        <v>236</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49"/>
+        <v>110</v>
+      </c>
+      <c r="H49" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="B50" t="s">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="C50" t="s">
-        <v>190</v>
+        <v>239</v>
       </c>
       <c r="D50" t="n">
         <v>2013</v>
       </c>
       <c r="E50" t="s">
-        <v>191</v>
+        <v>240</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>241</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50"/>
+        <v>14</v>
+      </c>
+      <c r="H50" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="B51" t="s">
-        <v>193</v>
+        <v>243</v>
       </c>
       <c r="C51" t="s">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="D51" t="n">
         <v>2015</v>
       </c>
       <c r="E51" t="s">
-        <v>195</v>
+        <v>245</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>246</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51"/>
+        <v>14</v>
+      </c>
+      <c r="H51" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c r="B52" t="s">
-        <v>197</v>
+        <v>248</v>
       </c>
       <c r="C52" t="s">
-        <v>198</v>
+        <v>249</v>
       </c>
       <c r="D52" t="n">
         <v>2016</v>
       </c>
       <c r="E52" t="s">
-        <v>199</v>
+        <v>250</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>251</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52"/>
+        <v>14</v>
+      </c>
+      <c r="H52" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="B53" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="C53" t="s">
-        <v>201</v>
+        <v>253</v>
       </c>
       <c r="D53" t="n">
         <v>2017</v>
       </c>
       <c r="E53" t="s">
-        <v>202</v>
+        <v>254</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
-      </c>
-      <c r="H53"/>
+        <v>14</v>
+      </c>
+      <c r="H53" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>203</v>
+        <v>256</v>
       </c>
       <c r="B54" t="s">
-        <v>204</v>
+        <v>257</v>
       </c>
       <c r="C54" t="s">
-        <v>205</v>
+        <v>258</v>
       </c>
       <c r="D54" t="n">
         <v>2016</v>
       </c>
       <c r="E54" t="s">
-        <v>206</v>
+        <v>259</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>260</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54"/>
+        <v>14</v>
+      </c>
+      <c r="H54" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>207</v>
+        <v>261</v>
       </c>
       <c r="B55" t="s">
-        <v>208</v>
+        <v>262</v>
       </c>
       <c r="C55" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="D55" t="n">
         <v>2016</v>
       </c>
       <c r="E55" t="s">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="F55" t="s">
-        <v>89</v>
+        <v>265</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55"/>
+        <v>110</v>
+      </c>
+      <c r="H55" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>211</v>
+        <v>266</v>
       </c>
       <c r="B56" t="s">
-        <v>212</v>
+        <v>267</v>
       </c>
       <c r="C56" t="s">
-        <v>213</v>
+        <v>268</v>
       </c>
       <c r="D56" t="n">
         <v>2016</v>
       </c>
       <c r="E56" t="s">
-        <v>214</v>
+        <v>269</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>270</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56"/>
+        <v>14</v>
+      </c>
+      <c r="H56" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>215</v>
+        <v>271</v>
       </c>
       <c r="B57" t="s">
-        <v>216</v>
+        <v>272</v>
       </c>
       <c r="C57" t="s">
-        <v>217</v>
+        <v>273</v>
       </c>
       <c r="D57" t="n">
         <v>2017</v>
       </c>
       <c r="E57" t="s">
-        <v>218</v>
+        <v>274</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>275</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57"/>
+        <v>14</v>
+      </c>
+      <c r="H57" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>219</v>
+        <v>276</v>
       </c>
       <c r="B58" t="s">
-        <v>220</v>
+        <v>277</v>
       </c>
       <c r="C58" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D58" t="n">
         <v>2017</v>
       </c>
       <c r="E58" t="s">
-        <v>221</v>
+        <v>278</v>
       </c>
       <c r="F58" t="s">
-        <v>89</v>
+        <v>279</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58"/>
+        <v>110</v>
+      </c>
+      <c r="H58" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>222</v>
+        <v>280</v>
       </c>
       <c r="B59" t="s">
-        <v>223</v>
+        <v>281</v>
       </c>
       <c r="C59" t="s">
-        <v>224</v>
+        <v>282</v>
       </c>
       <c r="D59" t="n">
         <v>2019</v>
       </c>
       <c r="E59" t="s">
-        <v>225</v>
+        <v>283</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
-      </c>
-      <c r="H59"/>
+        <v>14</v>
+      </c>
+      <c r="H59" t="s">
+        <v>15</v>
+      </c>
+      <c r="I59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>226</v>
+        <v>285</v>
       </c>
       <c r="B60" t="s">
-        <v>227</v>
+        <v>286</v>
       </c>
       <c r="C60" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
       <c r="D60" t="n">
         <v>2016</v>
       </c>
       <c r="E60" t="s">
-        <v>229</v>
+        <v>288</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>289</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
-      </c>
-      <c r="H60"/>
+        <v>14</v>
+      </c>
+      <c r="H60" t="s">
+        <v>15</v>
+      </c>
+      <c r="I60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="B61" t="s">
-        <v>231</v>
+        <v>291</v>
       </c>
       <c r="C61" t="s">
-        <v>232</v>
+        <v>292</v>
       </c>
       <c r="D61" t="n">
         <v>2020</v>
       </c>
       <c r="E61" t="s">
-        <v>233</v>
+        <v>293</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>294</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
-      </c>
-      <c r="H61"/>
+        <v>14</v>
+      </c>
+      <c r="H61" t="s">
+        <v>15</v>
+      </c>
+      <c r="I61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>234</v>
+        <v>295</v>
       </c>
       <c r="B62" t="s">
-        <v>235</v>
+        <v>296</v>
       </c>
       <c r="C62" t="s">
-        <v>236</v>
+        <v>297</v>
       </c>
       <c r="D62" t="n">
         <v>2020</v>
       </c>
       <c r="E62" t="s">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>299</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
-      </c>
-      <c r="H62"/>
+        <v>14</v>
+      </c>
+      <c r="H62" t="s">
+        <v>15</v>
+      </c>
+      <c r="I62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="B63" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="C63" t="s">
-        <v>232</v>
+        <v>292</v>
       </c>
       <c r="D63" t="n">
         <v>2020</v>
       </c>
       <c r="E63" t="s">
-        <v>240</v>
+        <v>302</v>
       </c>
       <c r="F63" t="s">
-        <v>89</v>
+        <v>303</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
-      </c>
-      <c r="H63"/>
+        <v>110</v>
+      </c>
+      <c r="H63" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>241</v>
+        <v>304</v>
       </c>
       <c r="B64" t="s">
-        <v>242</v>
+        <v>305</v>
       </c>
       <c r="C64" t="s">
-        <v>243</v>
+        <v>306</v>
       </c>
       <c r="D64" t="n">
         <v>2017</v>
       </c>
       <c r="E64" t="s">
-        <v>244</v>
+        <v>307</v>
       </c>
       <c r="F64" t="s">
-        <v>89</v>
+        <v>308</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
-      </c>
-      <c r="H64"/>
+        <v>110</v>
+      </c>
+      <c r="H64" t="s">
+        <v>15</v>
+      </c>
+      <c r="I64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>245</v>
+        <v>309</v>
       </c>
       <c r="B65" t="s">
-        <v>246</v>
+        <v>310</v>
       </c>
       <c r="C65" t="s">
-        <v>198</v>
+        <v>249</v>
       </c>
       <c r="D65" t="n">
         <v>2019</v>
       </c>
       <c r="E65" t="s">
-        <v>247</v>
+        <v>311</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>312</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65"/>
+        <v>14</v>
+      </c>
+      <c r="H65" t="s">
+        <v>15</v>
+      </c>
+      <c r="I65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="B66" t="s">
-        <v>249</v>
+        <v>314</v>
       </c>
       <c r="C66" t="s">
-        <v>250</v>
+        <v>315</v>
       </c>
       <c r="D66" t="n">
         <v>2019</v>
       </c>
       <c r="E66" t="s">
-        <v>251</v>
+        <v>316</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>317</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
-      </c>
-      <c r="H66"/>
+        <v>14</v>
+      </c>
+      <c r="H66" t="s">
+        <v>15</v>
+      </c>
+      <c r="I66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>252</v>
+        <v>318</v>
       </c>
       <c r="B67" t="s">
-        <v>253</v>
+        <v>319</v>
       </c>
       <c r="C67" t="s">
-        <v>232</v>
+        <v>292</v>
       </c>
       <c r="D67" t="n">
         <v>2020</v>
       </c>
       <c r="E67" t="s">
-        <v>254</v>
+        <v>320</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>321</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
-      </c>
-      <c r="H67"/>
+        <v>14</v>
+      </c>
+      <c r="H67" t="s">
+        <v>15</v>
+      </c>
+      <c r="I67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>255</v>
+        <v>322</v>
       </c>
       <c r="B68" t="s">
-        <v>256</v>
+        <v>323</v>
       </c>
       <c r="C68" t="s">
-        <v>257</v>
+        <v>324</v>
       </c>
       <c r="D68" t="n">
         <v>2015</v>
       </c>
       <c r="E68" t="s">
-        <v>258</v>
+        <v>325</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>326</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H68"/>
+        <v>14</v>
+      </c>
+      <c r="H68" t="s">
+        <v>15</v>
+      </c>
+      <c r="I68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="B69" t="s">
-        <v>260</v>
+        <v>328</v>
       </c>
       <c r="C69" t="s">
-        <v>243</v>
+        <v>306</v>
       </c>
       <c r="D69" t="n">
         <v>2019</v>
       </c>
       <c r="E69" t="s">
-        <v>261</v>
+        <v>329</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>330</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69"/>
+        <v>14</v>
+      </c>
+      <c r="H69" t="s">
+        <v>15</v>
+      </c>
+      <c r="I69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>262</v>
+        <v>331</v>
       </c>
       <c r="B70" t="s">
-        <v>263</v>
+        <v>332</v>
       </c>
       <c r="C70" t="s">
-        <v>264</v>
+        <v>333</v>
       </c>
       <c r="D70" t="n">
         <v>2020</v>
       </c>
       <c r="E70" t="s">
-        <v>265</v>
+        <v>334</v>
       </c>
       <c r="F70" t="s">
-        <v>89</v>
+        <v>335</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H70"/>
+        <v>110</v>
+      </c>
+      <c r="H70" t="s">
+        <v>15</v>
+      </c>
+      <c r="I70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>266</v>
+        <v>336</v>
       </c>
       <c r="B71" t="s">
-        <v>267</v>
+        <v>337</v>
       </c>
       <c r="C71" t="s">
-        <v>224</v>
+        <v>282</v>
       </c>
       <c r="D71" t="n">
         <v>2020</v>
       </c>
       <c r="E71" t="s">
-        <v>268</v>
+        <v>338</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>339</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71"/>
+        <v>14</v>
+      </c>
+      <c r="H71" t="s">
+        <v>15</v>
+      </c>
+      <c r="I71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>269</v>
+        <v>340</v>
       </c>
       <c r="B72" t="s">
-        <v>270</v>
+        <v>341</v>
       </c>
       <c r="C72" t="s">
-        <v>271</v>
+        <v>342</v>
       </c>
       <c r="D72" t="n">
         <v>2018</v>
       </c>
       <c r="E72" t="s">
-        <v>272</v>
+        <v>343</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>344</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
-      </c>
-      <c r="H72"/>
+        <v>14</v>
+      </c>
+      <c r="H72" t="s">
+        <v>15</v>
+      </c>
+      <c r="I72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>273</v>
+        <v>345</v>
       </c>
       <c r="B73" t="s">
-        <v>274</v>
+        <v>346</v>
       </c>
       <c r="C73" t="s">
-        <v>275</v>
+        <v>347</v>
       </c>
       <c r="D73" t="n">
         <v>2019</v>
       </c>
       <c r="E73" t="s">
-        <v>276</v>
+        <v>348</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>349</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
-      </c>
-      <c r="H73"/>
+        <v>14</v>
+      </c>
+      <c r="H73" t="s">
+        <v>15</v>
+      </c>
+      <c r="I73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>277</v>
+        <v>350</v>
       </c>
       <c r="B74" t="s">
-        <v>278</v>
+        <v>351</v>
       </c>
       <c r="C74" t="s">
-        <v>224</v>
+        <v>282</v>
       </c>
       <c r="D74" t="n">
         <v>2020</v>
       </c>
       <c r="E74" t="s">
-        <v>279</v>
+        <v>352</v>
       </c>
       <c r="F74" t="s">
-        <v>89</v>
+        <v>353</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
-      </c>
-      <c r="H74"/>
+        <v>110</v>
+      </c>
+      <c r="H74" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>280</v>
+        <v>354</v>
       </c>
       <c r="B75" t="s">
-        <v>281</v>
+        <v>355</v>
       </c>
       <c r="C75"/>
       <c r="D75" t="n">
         <v>2017</v>
       </c>
       <c r="E75" t="s">
-        <v>282</v>
+        <v>356</v>
       </c>
       <c r="F75" t="s">
-        <v>89</v>
+        <v>357</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75"/>
+        <v>110</v>
+      </c>
+      <c r="H75" t="s">
+        <v>15</v>
+      </c>
+      <c r="I75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="B76" t="s">
-        <v>284</v>
+        <v>359</v>
       </c>
       <c r="C76" t="s">
-        <v>243</v>
+        <v>306</v>
       </c>
       <c r="D76" t="n">
         <v>2019</v>
       </c>
       <c r="E76" t="s">
-        <v>285</v>
+        <v>360</v>
       </c>
       <c r="F76" t="s">
-        <v>286</v>
+        <v>361</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
-      </c>
-      <c r="H76"/>
+        <v>110</v>
+      </c>
+      <c r="H76" t="s">
+        <v>15</v>
+      </c>
+      <c r="I76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>287</v>
+        <v>362</v>
       </c>
       <c r="B77" t="s">
-        <v>288</v>
+        <v>363</v>
       </c>
       <c r="C77" t="s">
-        <v>289</v>
+        <v>364</v>
       </c>
       <c r="D77" t="n">
         <v>2018</v>
       </c>
       <c r="E77" t="s">
-        <v>290</v>
+        <v>365</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>366</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
-      </c>
-      <c r="H77"/>
+        <v>14</v>
+      </c>
+      <c r="H77" t="s">
+        <v>15</v>
+      </c>
+      <c r="I77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>291</v>
+        <v>367</v>
       </c>
       <c r="B78" t="s">
-        <v>292</v>
+        <v>368</v>
       </c>
       <c r="C78" t="s">
-        <v>198</v>
+        <v>249</v>
       </c>
       <c r="D78" t="n">
         <v>2018</v>
       </c>
       <c r="E78" t="s">
-        <v>293</v>
+        <v>369</v>
       </c>
       <c r="F78" t="s">
-        <v>286</v>
+        <v>370</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
-      </c>
-      <c r="H78"/>
+        <v>110</v>
+      </c>
+      <c r="H78" t="s">
+        <v>15</v>
+      </c>
+      <c r="I78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>294</v>
+        <v>371</v>
       </c>
       <c r="B79" t="s">
-        <v>295</v>
+        <v>372</v>
       </c>
       <c r="C79" t="s">
-        <v>296</v>
+        <v>373</v>
       </c>
       <c r="D79" t="n">
         <v>2020</v>
       </c>
       <c r="E79" t="s">
-        <v>297</v>
+        <v>374</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>375</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
-      </c>
-      <c r="H79"/>
+        <v>14</v>
+      </c>
+      <c r="H79" t="s">
+        <v>15</v>
+      </c>
+      <c r="I79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>298</v>
+        <v>376</v>
       </c>
       <c r="B80" t="s">
-        <v>299</v>
+        <v>377</v>
       </c>
       <c r="C80" t="s">
-        <v>300</v>
+        <v>378</v>
       </c>
       <c r="D80" t="n">
         <v>2016</v>
       </c>
       <c r="E80" t="s">
-        <v>301</v>
+        <v>379</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>380</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>148</v>
+        <v>15</v>
+      </c>
+      <c r="I80" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>302</v>
+        <v>381</v>
       </c>
       <c r="B81" t="s">
-        <v>303</v>
+        <v>382</v>
       </c>
       <c r="C81" t="s">
-        <v>304</v>
+        <v>383</v>
       </c>
       <c r="D81" t="n">
         <v>2018</v>
       </c>
       <c r="E81" t="s">
-        <v>305</v>
+        <v>384</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>385</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
-      </c>
-      <c r="H81"/>
+        <v>14</v>
+      </c>
+      <c r="H81" t="s">
+        <v>15</v>
+      </c>
+      <c r="I81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>386</v>
+      </c>
+      <c r="B82" t="s">
+        <v>387</v>
+      </c>
+      <c r="C82" t="s">
         <v>306</v>
-      </c>
-      <c r="B82" t="s">
-        <v>307</v>
-      </c>
-      <c r="C82" t="s">
-        <v>243</v>
       </c>
       <c r="D82" t="n">
         <v>2020</v>
       </c>
       <c r="E82" t="s">
-        <v>308</v>
+        <v>388</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>389</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
-      </c>
-      <c r="H82"/>
+        <v>14</v>
+      </c>
+      <c r="H82" t="s">
+        <v>15</v>
+      </c>
+      <c r="I82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>309</v>
+        <v>390</v>
       </c>
       <c r="B83" t="s">
-        <v>310</v>
+        <v>391</v>
       </c>
       <c r="C83" t="s">
-        <v>311</v>
+        <v>392</v>
       </c>
       <c r="D83" t="n">
         <v>2020</v>
       </c>
       <c r="E83" t="s">
-        <v>312</v>
+        <v>393</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>394</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
-      </c>
-      <c r="H83"/>
+        <v>14</v>
+      </c>
+      <c r="H83" t="s">
+        <v>15</v>
+      </c>
+      <c r="I83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="B84" t="s">
-        <v>299</v>
+        <v>377</v>
       </c>
       <c r="C84" t="s">
-        <v>313</v>
+        <v>395</v>
       </c>
       <c r="D84" t="n">
         <v>2015</v>
       </c>
       <c r="E84" t="s">
-        <v>314</v>
+        <v>379</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>396</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>148</v>
+        <v>15</v>
+      </c>
+      <c r="I84" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>315</v>
+        <v>397</v>
       </c>
       <c r="B85" t="s">
-        <v>316</v>
+        <v>398</v>
       </c>
       <c r="C85" t="s">
-        <v>317</v>
+        <v>399</v>
       </c>
       <c r="D85" t="n">
         <v>2020</v>
       </c>
       <c r="E85" t="s">
-        <v>318</v>
+        <v>400</v>
       </c>
       <c r="F85" t="s">
-        <v>89</v>
+        <v>401</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="H85" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="I85" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>319</v>
+        <v>402</v>
       </c>
       <c r="B86" t="s">
-        <v>320</v>
+        <v>403</v>
       </c>
       <c r="C86" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="D86" t="n">
         <v>2020</v>
       </c>
       <c r="E86" t="s">
-        <v>321</v>
+        <v>404</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>405</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
-      </c>
-      <c r="H86"/>
+        <v>14</v>
+      </c>
+      <c r="H86" t="s">
+        <v>15</v>
+      </c>
+      <c r="I86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>322</v>
+        <v>406</v>
       </c>
       <c r="B87" t="s">
-        <v>323</v>
+        <v>407</v>
       </c>
       <c r="C87" t="s">
-        <v>324</v>
+        <v>408</v>
       </c>
       <c r="D87" t="n">
         <v>2019</v>
       </c>
       <c r="E87" t="s">
-        <v>325</v>
+        <v>409</v>
       </c>
       <c r="F87" t="s">
-        <v>89</v>
+        <v>410</v>
       </c>
       <c r="G87" t="s">
-        <v>13</v>
-      </c>
-      <c r="H87"/>
+        <v>110</v>
+      </c>
+      <c r="H87" t="s">
+        <v>15</v>
+      </c>
+      <c r="I87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>326</v>
+        <v>411</v>
       </c>
       <c r="B88" t="s">
-        <v>327</v>
+        <v>412</v>
       </c>
       <c r="C88" t="s">
-        <v>328</v>
+        <v>413</v>
       </c>
       <c r="D88" t="n">
         <v>2020</v>
       </c>
       <c r="E88" t="s">
-        <v>329</v>
+        <v>414</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
+        <v>415</v>
       </c>
       <c r="G88" t="s">
-        <v>13</v>
-      </c>
-      <c r="H88"/>
+        <v>14</v>
+      </c>
+      <c r="H88" t="s">
+        <v>15</v>
+      </c>
+      <c r="I88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>330</v>
+        <v>416</v>
       </c>
       <c r="B89" t="s">
-        <v>331</v>
+        <v>417</v>
       </c>
       <c r="C89"/>
       <c r="D89" t="n">
         <v>2019</v>
       </c>
       <c r="E89" t="s">
-        <v>332</v>
+        <v>418</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>419</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
-      </c>
-      <c r="H89"/>
+        <v>14</v>
+      </c>
+      <c r="H89" t="s">
+        <v>15</v>
+      </c>
+      <c r="I89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>333</v>
+        <v>420</v>
       </c>
       <c r="B90" t="s">
-        <v>334</v>
+        <v>421</v>
       </c>
       <c r="C90" t="s">
-        <v>335</v>
+        <v>422</v>
       </c>
       <c r="D90" t="n">
         <v>2016</v>
       </c>
-      <c r="E90" t="s">
-        <v>336</v>
-      </c>
+      <c r="E90"/>
       <c r="F90" t="s">
-        <v>89</v>
+        <v>423</v>
       </c>
       <c r="G90" t="s">
-        <v>13</v>
-      </c>
-      <c r="H90"/>
+        <v>110</v>
+      </c>
+      <c r="H90" t="s">
+        <v>15</v>
+      </c>
+      <c r="I90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>337</v>
+        <v>424</v>
       </c>
       <c r="B91" t="s">
-        <v>338</v>
+        <v>425</v>
       </c>
       <c r="C91" t="s">
-        <v>339</v>
+        <v>426</v>
       </c>
       <c r="D91" t="n">
         <v>2020</v>
       </c>
       <c r="E91" t="s">
-        <v>340</v>
+        <v>427</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>428</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
-      </c>
-      <c r="H91"/>
+        <v>14</v>
+      </c>
+      <c r="H91" t="s">
+        <v>15</v>
+      </c>
+      <c r="I91"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>341</v>
+        <v>429</v>
       </c>
       <c r="B92" t="s">
-        <v>342</v>
+        <v>430</v>
       </c>
       <c r="C92" t="s">
-        <v>217</v>
+        <v>273</v>
       </c>
       <c r="D92" t="n">
         <v>2020</v>
       </c>
       <c r="E92" t="s">
-        <v>343</v>
+        <v>431</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>432</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
-      </c>
-      <c r="H92"/>
+        <v>14</v>
+      </c>
+      <c r="H92" t="s">
+        <v>15</v>
+      </c>
+      <c r="I92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>344</v>
+        <v>433</v>
       </c>
       <c r="B93" t="s">
-        <v>345</v>
+        <v>434</v>
       </c>
       <c r="C93" t="s">
-        <v>346</v>
+        <v>435</v>
       </c>
       <c r="D93" t="n">
         <v>2020</v>
       </c>
       <c r="E93" t="s">
-        <v>347</v>
+        <v>436</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>437</v>
       </c>
       <c r="G93" t="s">
-        <v>13</v>
-      </c>
-      <c r="H93"/>
+        <v>14</v>
+      </c>
+      <c r="H93" t="s">
+        <v>15</v>
+      </c>
+      <c r="I93"/>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>348</v>
+        <v>438</v>
       </c>
       <c r="B94" t="s">
-        <v>349</v>
+        <v>439</v>
       </c>
       <c r="C94" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="D94" t="n">
         <v>2020</v>
       </c>
       <c r="E94" t="s">
-        <v>350</v>
+        <v>440</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>441</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
-      </c>
-      <c r="H94"/>
+        <v>14</v>
+      </c>
+      <c r="H94" t="s">
+        <v>15</v>
+      </c>
+      <c r="I94"/>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
       <c r="B95" t="s">
-        <v>352</v>
+        <v>443</v>
       </c>
       <c r="C95" t="s">
-        <v>353</v>
+        <v>444</v>
       </c>
       <c r="D95" t="n">
         <v>2019</v>
       </c>
       <c r="E95" t="s">
-        <v>354</v>
+        <v>445</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>446</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
-      </c>
-      <c r="H95"/>
+        <v>14</v>
+      </c>
+      <c r="H95" t="s">
+        <v>15</v>
+      </c>
+      <c r="I95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>355</v>
+        <v>447</v>
       </c>
       <c r="B96" t="s">
-        <v>356</v>
+        <v>448</v>
       </c>
       <c r="C96" t="s">
-        <v>357</v>
+        <v>449</v>
       </c>
       <c r="D96" t="n">
         <v>2020</v>
       </c>
       <c r="E96" t="s">
-        <v>358</v>
+        <v>450</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>451</v>
       </c>
       <c r="G96" t="s">
-        <v>13</v>
-      </c>
-      <c r="H96"/>
+        <v>14</v>
+      </c>
+      <c r="H96" t="s">
+        <v>15</v>
+      </c>
+      <c r="I96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>359</v>
+        <v>452</v>
       </c>
       <c r="B97" t="s">
-        <v>360</v>
+        <v>453</v>
       </c>
       <c r="C97" t="s">
-        <v>361</v>
+        <v>454</v>
       </c>
       <c r="D97" t="n">
         <v>2020</v>
       </c>
       <c r="E97" t="s">
-        <v>362</v>
+        <v>455</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>456</v>
       </c>
       <c r="G97" t="s">
-        <v>13</v>
-      </c>
-      <c r="H97"/>
+        <v>14</v>
+      </c>
+      <c r="H97" t="s">
+        <v>15</v>
+      </c>
+      <c r="I97"/>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>363</v>
+        <v>457</v>
       </c>
       <c r="B98" t="s">
-        <v>364</v>
+        <v>458</v>
       </c>
       <c r="C98" t="s">
-        <v>365</v>
+        <v>459</v>
       </c>
       <c r="D98" t="n">
         <v>2020</v>
       </c>
       <c r="E98" t="s">
-        <v>366</v>
+        <v>460</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>461</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
-      </c>
-      <c r="H98"/>
+        <v>14</v>
+      </c>
+      <c r="H98" t="s">
+        <v>15</v>
+      </c>
+      <c r="I98"/>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>367</v>
+        <v>462</v>
       </c>
       <c r="B99" t="s">
-        <v>368</v>
+        <v>463</v>
       </c>
       <c r="C99" t="s">
-        <v>369</v>
+        <v>464</v>
       </c>
       <c r="D99" t="n">
         <v>2020</v>
       </c>
-      <c r="E99" t="s">
-        <v>370</v>
-      </c>
+      <c r="E99"/>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>465</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
-      </c>
-      <c r="H99"/>
+        <v>14</v>
+      </c>
+      <c r="H99" t="s">
+        <v>15</v>
+      </c>
+      <c r="I99"/>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>371</v>
+        <v>466</v>
       </c>
       <c r="B100" t="s">
-        <v>372</v>
+        <v>467</v>
       </c>
       <c r="C100" t="s">
-        <v>346</v>
+        <v>435</v>
       </c>
       <c r="D100" t="n">
         <v>2020</v>
       </c>
       <c r="E100" t="s">
-        <v>373</v>
+        <v>468</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>469</v>
       </c>
       <c r="G100" t="s">
-        <v>13</v>
-      </c>
-      <c r="H100"/>
+        <v>14</v>
+      </c>
+      <c r="H100" t="s">
+        <v>15</v>
+      </c>
+      <c r="I100"/>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>374</v>
+        <v>470</v>
       </c>
       <c r="B101" t="s">
-        <v>375</v>
+        <v>471</v>
       </c>
       <c r="C101" t="s">
-        <v>376</v>
+        <v>472</v>
       </c>
       <c r="D101" t="n">
         <v>2020</v>
       </c>
       <c r="E101" t="s">
-        <v>377</v>
+        <v>473</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>474</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="I101" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>378</v>
+        <v>475</v>
       </c>
       <c r="B102" t="s">
-        <v>379</v>
+        <v>476</v>
       </c>
       <c r="C102" t="s">
-        <v>380</v>
+        <v>477</v>
       </c>
       <c r="D102" t="n">
         <v>2021</v>
       </c>
       <c r="E102" t="s">
-        <v>381</v>
+        <v>478</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
+        <v>479</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
-      </c>
-      <c r="H102"/>
+        <v>14</v>
+      </c>
+      <c r="H102" t="s">
+        <v>15</v>
+      </c>
+      <c r="I102"/>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>382</v>
+        <v>480</v>
       </c>
       <c r="B103" t="s">
-        <v>383</v>
+        <v>481</v>
       </c>
       <c r="C103" t="s">
-        <v>384</v>
+        <v>482</v>
       </c>
       <c r="D103" t="n">
         <v>2020</v>
       </c>
       <c r="E103" t="s">
-        <v>385</v>
+        <v>483</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>484</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
-      </c>
-      <c r="H103"/>
+        <v>14</v>
+      </c>
+      <c r="H103" t="s">
+        <v>15</v>
+      </c>
+      <c r="I103"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Observational Papers/Observational_Papers.xlsx
+++ b/Observational Papers/Observational_Papers.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="502">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -1898,6 +1898,73 @@
   </si>
   <si>
     <t xml:space="preserve">Irritability is common in Attention-Deficit Hyperactivity Disorder (ADHD), but little is known about whether irritability predicts the course of ADHD symptoms over time. Adolescence is a dynamic period of emotional development as well as shifts in ADHD symptoms; an important goal is to identify youth at risk of increasing or persisting symptoms. We examined irritability as a longitudinal predictor of change in adolescents’ ADHD symptoms, as well as how this link may differ in females versus males. The sample included 108 youth (72 males) age 12–16 years (M = 14.21 years, SD = 1.44 years), 62 of whom met criteria for ADHD. Approximately 18 months later, 80 participants (48 males) were followed up at Time 2. A dimensional approach was used to examine changes over time in parent-reported inattentive and hyperactive/impulsive symptoms. Longitudinal path analysis revealed that irritability at Time 1 predicted higher relative hyperactive/impulsive symptoms at Time 2 after controlling for age and longitudinal stability in all variables. A multiple-group analysis examining moderation by sex/gender revealed that this association was significant only for females. These results suggest that irritability may play a key role in the persistence and worsening of hyperactive/impulsive symptoms across adolescence for females, with potential implications for the diagnosis and treatment of females with ADHD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psychiatric comorbidity and social adjustment difficulties in children with disruptive mood dysregulation disorder: A national epidemiological study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yu-Ju Lin, Wan-Ling Tseng, Susan Shur-Fen Gau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.jad.2020.12.039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+We examined correlates, psychiatric comorbidities, and social adjustment difficulties in children with disruptive mood dysregulation disorder (DMDD) from a national epidemiological study in Taiwan.
+Methods
+The sample consisted of 4816 children, who were 3rd, 5th, and 7th graders from schools randomly chosen based on the urbanization level in a recent national survey of childhood mental disorders. Among the 4816 children (2520 boys, 52.3%) interviewed using the Kiddie epidemiologic version of the Schedule for Affective Disorders and Schizophrenia (K-SADS-E) for the DSM-5, 30 children were diagnosed as DMDD (23 boys, 76.7%). They and their parents also reported on the Social Adjustment Inventory for Children and Adolescents (SAICA). We conducted regressions for survey data that controlled for stratification and clustering.
+Results
+The weighted prevalence of DMDD was 0.3~0.76% in Taiwanese children. Lower parental educational levels, male predominance, higher psychiatric comorbidities, and worse self-report school functions (e.g., more behavioral problems with peers) were observed in children with DMDD than those without. Additional analyses revealed that oppositional defiant disorder (ODD) but not DMDD was related to conduct disorder. Children with ODD with or without DMDD had more problems regarding attitudes toward school, academic performance, and parent-child interaction at home than those with DMDD-only.
+Limitations
+Small sample size of DMDD.
+Conclusions
+DMDD is a rare disorder in the community. Children with DMDD had more psychiatric comorbidities, and subjectively experienced more difficulties than those without. DMDD and ODD both resulted in severe impairment yet in different domains.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phasic Versus Tonic Irritability: Differential Associations With Attention-Deficit/Hyperactivity Disorder Symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elise M. Cardinale, Gabrielle F. Freitag, Melissa A. Brotman, Daniel S. Pine, Ellen Leibenluft, Katharina Kircanski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.jaac.2020.11.022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective
+Irritability is a multifaceted construct in pediatric psychopathology. It has been conceptualized as having a ‘phasic’ dimension and a ‘tonic’ dimension. Disruptive mood dysregulation disorder (DMDD) is defined by the presence of both dimensions. Severe irritability, or DMDD, is highly comorbid with attention-deficit/hyperactivity disorder (ADHD). However, it is unknown whether the presence of ADHD modulates the expression of phasic and tonic irritability.
+Method
+A data-driven, latent variable approach was used to examine irritability and ADHD symptoms in a transdiagnostic pediatric sample (N=489) with primary DMDD, ADHD, subclinical irritability symptoms, or no diagnosis. Using latent profile analyses (LPA), we identified four classes: high levels of both irritability and ADHD symptoms, high levels of irritability and moderate levels of ADHD symptoms, moderate levels of irritability and high levels of ADHD symptoms, and low levels of both irritability and ADHD symptoms. Confirmatory factor analysis operationalized phasic irritability and tonic irritability.
+Results
+As expected, the two latent classes characterized by high overall irritability exhibited the highest levels of both phasic and tonic irritability. However, between these two high irritability classes, highly comorbid ADHD symptoms were associated with significantly greater phasic irritability than were moderately comorbid ADHD symptoms. In contrast, the two high irritability groups did not differ on levels of tonic irritability.
+Conclusion
+These findings suggest that phasic, but not tonic, irritability has a significant association with ADHD symptoms, and that phasic and tonic might be distinct, though highly related, irritability dimensions. Future research should investigate potential mechanisms underlying this differential association.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neural mechanisms of reward processing in adolescent irritability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Kryza‐Lacombe, Brianna Hernandez, Cassidy Owen, Richard C. Reynolds, Lauren S. Wakschlag, Lea R. Dougherty, Jillian L. Wiggins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developmental Psychobiology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1002/dev.22090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irritability is impairing and prevalent across pediatric psychiatric disorders and typical development, yet its neural mechanisms are largely unknown. This study evaluated the relation between adolescent irritability and reward‐related brain function as a candidate neural mechanism. Adolescents from intervention‐seeking families in the community (N = 52; mean age = 13.80, SD = 1.94) completed a monetary incentive delay task to assess reward anticipation and feedback (reward receipt and omission) during fMRI acquisition. Whole‐brain analyses, controlling for age, examined brain activation and striatal and amygdala connectivity in relation to irritability. Irritability was measured using the parent‐ and youth‐reported Affective Reactivity Index. Irritability was associated with altered reward processing‐related activation and connectivity in multiple networks during reward anticipation and feedback, including increased striatal activation and altered ventral striatum connectivity with prefrontal areas. Our findings suggest that irritability is associated with altered neural patterns during reward processing and that aberrant prefrontal cortex‐mediated top‐down control may be related to irritability. These findings inform our understanding of the etiology of youth irritability and the development of mechanism‐based interventions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functional connectivity during frustration: a preliminary study of predictive modeling of irritability in youth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dustin Scheinost, Javid Dadashkarimi, Emily S. Finn, Caroline G. Wambach, Caroline MacGillivray, Alexandra L. Roule, Tara A. Niendam, Daniel S. Pine, Melissa A. Brotman, Ellen Leibenluft, Wan-Ling Tseng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1038/s41386-020-00954-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irritability cuts across many pediatric disorders and is a common presenting complaint in child psychiatry; however, its neural mechanisms remain unclear. One core pathophysiological deficit of irritability is aberrant responses to frustrative nonreward. Here, we conducted a preliminary fMRI study to examine the ability of functional connectivity during frustrative nonreward to predict irritability in a transdiagnostic sample. This study included 69 youths (mean age = 14.55 years) with varying levels of irritability across diagnostic groups: disruptive mood dysregulation disorder (n = 20), attention-deficit/hyperactivity disorder (n = 14), anxiety disorder (n = 12), and controls (n = 23). During fMRI, participants completed a frustrating cognitive flexibility task. Frustration was evoked by manipulating task difficulty such that, on trials requiring cognitive flexibility, “frustration” blocks had a 50% error rate and some rigged feedback, while “nonfrustration” blocks had a 10% error rate. Frustration and nonfrustration blocks were randomly interspersed. Child and parent reports of the affective reactivity index were used as dimensional measures of irritability. Connectome-based predictive modeling, a machine learning approach, with tenfold cross-validation was conducted to identify networks predicting irritability. Connectivity during frustration (but not nonfrustration) blocks predicted child-reported irritability (ρ = 0.24, root mean square error = 2.02, p = 0.03, permutation testing, 1000 iterations, one-tailed). Results were adjusted for age, sex, medications, motion, ADHD, and anxiety symptoms. The predictive networks of irritability were primarily within motor-sensory networks; among motor-sensory, subcortical, and salience networks; and between these networks and frontoparietal and medial frontal networks. This study provides preliminary evidence that individual differences in irritability may be associated with functional connectivity during frustration, a phenotype-relevant state.</t>
   </si>
 </sst>
 </file>
@@ -5024,6 +5091,114 @@
       </c>
       <c r="I103"/>
     </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>485</v>
+      </c>
+      <c r="B104" t="s">
+        <v>486</v>
+      </c>
+      <c r="C104" t="s">
+        <v>282</v>
+      </c>
+      <c r="D104" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E104" t="s">
+        <v>487</v>
+      </c>
+      <c r="F104" t="s">
+        <v>488</v>
+      </c>
+      <c r="G104" t="s">
+        <v>110</v>
+      </c>
+      <c r="H104" t="s">
+        <v>15</v>
+      </c>
+      <c r="I104"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>489</v>
+      </c>
+      <c r="B105" t="s">
+        <v>490</v>
+      </c>
+      <c r="C105" t="s">
+        <v>249</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E105" t="s">
+        <v>491</v>
+      </c>
+      <c r="F105" t="s">
+        <v>492</v>
+      </c>
+      <c r="G105" t="s">
+        <v>14</v>
+      </c>
+      <c r="H105" t="s">
+        <v>15</v>
+      </c>
+      <c r="I105"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>493</v>
+      </c>
+      <c r="B106" t="s">
+        <v>494</v>
+      </c>
+      <c r="C106" t="s">
+        <v>495</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E106" t="s">
+        <v>496</v>
+      </c>
+      <c r="F106" t="s">
+        <v>497</v>
+      </c>
+      <c r="G106" t="s">
+        <v>14</v>
+      </c>
+      <c r="H106" t="s">
+        <v>15</v>
+      </c>
+      <c r="I106"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>498</v>
+      </c>
+      <c r="B107" t="s">
+        <v>499</v>
+      </c>
+      <c r="C107" t="s">
+        <v>44</v>
+      </c>
+      <c r="D107" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E107" t="s">
+        <v>500</v>
+      </c>
+      <c r="F107" t="s">
+        <v>501</v>
+      </c>
+      <c r="G107" t="s">
+        <v>14</v>
+      </c>
+      <c r="H107" t="s">
+        <v>15</v>
+      </c>
+      <c r="I107"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Observational Papers/Observational_Papers.xlsx
+++ b/Observational Papers/Observational_Papers.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="507">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -1965,6 +1965,21 @@
   </si>
   <si>
     <t xml:space="preserve">Irritability cuts across many pediatric disorders and is a common presenting complaint in child psychiatry; however, its neural mechanisms remain unclear. One core pathophysiological deficit of irritability is aberrant responses to frustrative nonreward. Here, we conducted a preliminary fMRI study to examine the ability of functional connectivity during frustrative nonreward to predict irritability in a transdiagnostic sample. This study included 69 youths (mean age = 14.55 years) with varying levels of irritability across diagnostic groups: disruptive mood dysregulation disorder (n = 20), attention-deficit/hyperactivity disorder (n = 14), anxiety disorder (n = 12), and controls (n = 23). During fMRI, participants completed a frustrating cognitive flexibility task. Frustration was evoked by manipulating task difficulty such that, on trials requiring cognitive flexibility, “frustration” blocks had a 50% error rate and some rigged feedback, while “nonfrustration” blocks had a 10% error rate. Frustration and nonfrustration blocks were randomly interspersed. Child and parent reports of the affective reactivity index were used as dimensional measures of irritability. Connectome-based predictive modeling, a machine learning approach, with tenfold cross-validation was conducted to identify networks predicting irritability. Connectivity during frustration (but not nonfrustration) blocks predicted child-reported irritability (ρ = 0.24, root mean square error = 2.02, p = 0.03, permutation testing, 1000 iterations, one-tailed). Results were adjusted for age, sex, medications, motion, ADHD, and anxiety symptoms. The predictive networks of irritability were primarily within motor-sensory networks; among motor-sensory, subcortical, and salience networks; and between these networks and frontoparietal and medial frontal networks. This study provides preliminary evidence that individual differences in irritability may be associated with functional connectivity during frustration, a phenotype-relevant state.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understanding Phasic Irritability: Anger and Distress in Children’s Temper Outbursts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emily Hirsch, Kaley Davis, Zihuan Cao, Amy Krain Roy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child Psychiatry &amp; Human Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1007/s10578-021-01126-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pediatric irritability can be highly impairing and is implicated in adverse outcomes. The phasic component, characterized by temper outbursts, is a frequent impetus to seek treatment. This study tested whether a previously described anger-distress model of tantrums applies to an outpatient sample of school-age children with clinically impairing temper outbursts (TO; 5.0–9.9 years; N = 86), and examined the clinical relevance of resulting factors through associations with measures of psychopathology, and differences between children with TO and two groups without: children with ADHD (n = 60) and healthy controls (n = 45). Factor analyses established a three-factor model: High Anger, Low Anger, Distress. These factors had unique associations with measures of irritability, externalizing problems, and internalizing problems in the TO group. Additionally, an interaction between groups and outburst factors emerged. Results provide evidence for the presence and clinical utility of the anger-distress model in children’s outbursts and suggest avenues for future pediatric irritability research.</t>
   </si>
 </sst>
 </file>
@@ -5199,6 +5214,35 @@
       </c>
       <c r="I107"/>
     </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>502</v>
+      </c>
+      <c r="B108" t="s">
+        <v>503</v>
+      </c>
+      <c r="C108" t="s">
+        <v>504</v>
+      </c>
+      <c r="D108" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E108" t="s">
+        <v>505</v>
+      </c>
+      <c r="F108" t="s">
+        <v>506</v>
+      </c>
+      <c r="G108" t="s">
+        <v>110</v>
+      </c>
+      <c r="H108" t="s">
+        <v>15</v>
+      </c>
+      <c r="I108" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Observational Papers/Observational_Papers.xlsx
+++ b/Observational Papers/Observational_Papers.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="536">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -1980,6 +1980,114 @@
   </si>
   <si>
     <t xml:space="preserve">Pediatric irritability can be highly impairing and is implicated in adverse outcomes. The phasic component, characterized by temper outbursts, is a frequent impetus to seek treatment. This study tested whether a previously described anger-distress model of tantrums applies to an outpatient sample of school-age children with clinically impairing temper outbursts (TO; 5.0–9.9 years; N = 86), and examined the clinical relevance of resulting factors through associations with measures of psychopathology, and differences between children with TO and two groups without: children with ADHD (n = 60) and healthy controls (n = 45). Factor analyses established a three-factor model: High Anger, Low Anger, Distress. These factors had unique associations with measures of irritability, externalizing problems, and internalizing problems in the TO group. Additionally, an interaction between groups and outburst factors emerged. Results provide evidence for the presence and clinical utility of the anger-distress model in children’s outbursts and suggest avenues for future pediatric irritability research.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deliberative Choice Strategies in Youths: Relevance to Transdiagnostic Anxiety Symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elise M. Cardinale, David Pagliaccio, Caroline Swetlitz, Hannah Grassie, Rany Abend, Vincent Costa, Bruno Averbeck, Melissa A. Brotman, Daniel S. Pine, Ellen Leibenluft, Katharina Kircanski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinical Psychological Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1177%2F2167702621991805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aberrant decision-making characterizes various pediatric psychopathologies; however, deliberative choice strategies
+have not been investigated. A transdiagnostic sample of 95 youths completed a child-friendly sequential sampling
+paradigm. Participants searched for the best offer by sampling a finite list of offers. Participants’ willingness to explore
+was measured as the number of offers sampled, and ideal task performance was modeled using a Markov decisionprocess model. As in previous findings in adults, youths explored more offers when lists were long compared with
+short, yet participants generally sampled fewer offers relative to model-estimated ideal performance. Searching deeper
+into the list was associated with choosing better price options. Analyses examining the main and interactive effects of
+transdiagnostic anxiety and irritability symptoms indicated a negative correlation between anxiety and task performance
+(p = .01, ηp
+2 = .08). Findings suggest the need for more research on exploratory decision impairments in youths with
+anxiety symptoms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attention bias to negative versus non-negative faces is related to negative affectivity in a transdiagnostic youth sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anita Harrewijn, Rany Abend, Reut Naim, Simone P. Haller, Caitlin M. Stavish, Mira A. Bajaj, Chika Matsumoto, Kelly Dombek, Elise M. Cardinale, Katharina Kircanski, Melissa A. Brotman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Psychiatric Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.jpsychires.2021.04.036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This study identified a shared pathophysiological mechanism of pediatric anxiety and irritability. Clinically, anxiety and irritability are common, co-occurring problems, both characterized by high-arousal negative affective states. Behaviorally, anxiety and irritability are associated with aberrant threat processing. To build on these findings, we examined eye-tracking measures of attention bias in relation to the unique and shared features of anxiety and irritability in a transdiagnostic sample of youth (n = 97, 58% female, Mage = 13.03, SDage = 2.82). We measured attention bias to negative versus non-negative emotional faces during a passive viewing task. We employed bifactor analysis to parse the unique and shared variance of anxiety and irritability symptoms from self- and parent-report questionnaires. Negative affectivity is the derived latent factor reflecting shared variance of anxiety and irritability. We found that higher negative affectivity was associated with looking longer at negative versus non-negative faces, reflecting a shared mechanism of anxiety and irritability. This finding suggests that modification of elevated attention to negative emotional faces may represent a common potential treatment target of anxiety and irritability.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reduced neural responsiveness to looming stimuli is associated with increased aggression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R James Blair, Ru Zhang, Johannah Bashford-Largo, Sahil Bajaj, Avantika Mathur, Jay Ringle, Amanda Schwartz, Jaimie Elowsky, Matthew Dobbertin, Karina S Blair, Patrick M Tyler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social Cognitive and Affective Neuroscience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1093/scan/nsab058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While neuro-cognitive work examining aggression has examined patients with conditions at increased risk for aggression or individuals self-reporting past aggression, little work has attempted to identify neuro-cognitive markers associated with observed/recorded aggression. The goal of the current study was to determine the extent to which aggression by youth in the first three months of residential care was associated with atypical responsiveness to threat stimuli. This functional MRI study involved 98 (68 male; mean age = 15.96 [sd = 1.52]) adolescents in residential care performing a looming threat task involving images of threatening and neutral human faces or animals that appeared to be either loom or recede. Level of aggression was negatively associated with responding to looming stimuli (irrespective of whether these were threatening or neutral) within regions including bilateral inferior frontal gyrus, right inferior parietal lobule, right superior/middle temporal gyrus and a region of right uncus proximal to the amygdala. These data indicate that aggression level is associated with a decrease in responsiveness to a basic threat cue-looming stimuli. Reduced threat responsiveness likely results in the individual being less able to represent the negative consequences that may result from engaging in aggression, thereby increasing the risk for aggressive episodes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trauma Reactions in Children with ADHD During the COVID-19 Pandemic: The Mediating Effect of Irritability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halit Necmi Uçar, Fatih Hilmi Çetin, Serhat Türkoğlu, Gökçeçiçek Arıcı Sağliyan, Özlem Çiçek Zekey &amp; Çiğdem Yılmaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Loss and Trauma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1080/15325024.2021.1926782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This study aimed to investigate the symptoms of trauma, depression, anxiety, and irritability in children with attention deficit hyperactivity disorder (ADHD) during home confinement due to COVID-19. The sample of this single-center, cross-sectional study consisted of 42 children with ADHD and their parents. There were significant differences in the severity of depression, anxiety, irritability, and ADHD symptoms between the group that experienced pathological trauma reactions and the group that did not. According to the results of mediation analyses, the irritability score was found to be the full mediating factor in the relationship between trauma reaction scores/emotional symptom scores and the severity of ADHD symptoms. Because of the modest sample size due to the exclusion of ADHD patients with comorbidities, we recommend that future research focus on reproducing the role of irritability, in larger samples, as the full mediator on the path from cognition to behavior in children with ADHD under home confinement during the pandemic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bullying Perpetration and Victimization in Youth: Associations with Irritability and Anxiety</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hung-Wei Bernie Chen, Erin S. Gardner, Tessa Clarkson, Nicholas R. Eaton, Jillian Lee Wiggins, Ellen Leibenluft &amp; Johanna M. Jarcho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1007/s10578-021-01192-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior work on has demonstrated that irritability and anxiety are associated with bullying perpetration and victimization, respectively. Even though symptoms of irritability and anxiety often occur concurrently, few studies have tested their interactive effects on perpetration or victimization. The current study recruited 131 youths from a broader program of research that examines the pathophysiology and treatment of pediatric irritability and anxiety. Two moderation tests were performed to examine concurrent irritability and anxiety symptoms and their relation to perpetration and victimization of bullying. More severe anxiety was associated with greater victimization. However, more severe irritability was associated with, not just greater perpetration, but also greater victimization. An irritability-by-anxiety interaction demonstrated that youths with more severe irritability and lower levels of anxiety engaged in more perpetration. Our findings suggest a more nuanced approach to understanding how the commonly comorbid symptoms of irritability and anxiety interact in relation to peer-directed behavior in youths.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Early Predictors of Adolescent Irritability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ellen M. Kessel, Lea R. Dougherty, Samantha Hubacheck, Emma Chad-Friedman, Tom Olino, Gabrielle A. Carlson, Daniel N. Klein,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child and Adolescent Psychiatric Clinics of North America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.chc.2021.04.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•
+Limited research has examined early precursors/risk factors for adolescent irritability.
+•
+Using multiple methods and informants and a prospective longitudinal design, the authors examined the continuity of irritability from early childhood to adolescence and identified other early predictors of adolescent irritability.
+•
+Across both self-reports and mother-reports, the authors found evidence for continuity of irritability from ages 3 to 15.
+•
+The authors also found that early antecedents of adolescent irritability differ in many instances as a function of either informant or gender.
+•
+The results also suggest that adolescent irritability is characterized by several distinct developmental pathways from age 3 that have the potential to result in an irritable phenotype at age 15.
+•
+They also suggest that self-reported and mother-reported irritability may be capturing distinct underlying constructs, and both should be considered in assessments of adolescent irritability.</t>
   </si>
 </sst>
 </file>
@@ -2309,7 +2417,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -5240,6 +5348,170 @@
         <v>15</v>
       </c>
       <c r="I108" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>507</v>
+      </c>
+      <c r="B109" t="s">
+        <v>508</v>
+      </c>
+      <c r="C109" t="s">
+        <v>509</v>
+      </c>
+      <c r="D109" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E109" t="s">
+        <v>510</v>
+      </c>
+      <c r="F109" t="s">
+        <v>511</v>
+      </c>
+      <c r="G109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H109" t="s">
+        <v>15</v>
+      </c>
+      <c r="I109"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>512</v>
+      </c>
+      <c r="B110" t="s">
+        <v>513</v>
+      </c>
+      <c r="C110" t="s">
+        <v>514</v>
+      </c>
+      <c r="D110" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E110" t="s">
+        <v>515</v>
+      </c>
+      <c r="F110" t="s">
+        <v>516</v>
+      </c>
+      <c r="G110" t="s">
+        <v>14</v>
+      </c>
+      <c r="H110" t="s">
+        <v>15</v>
+      </c>
+      <c r="I110"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>517</v>
+      </c>
+      <c r="B111" t="s">
+        <v>518</v>
+      </c>
+      <c r="C111" t="s">
+        <v>519</v>
+      </c>
+      <c r="D111" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E111" t="s">
+        <v>520</v>
+      </c>
+      <c r="F111" t="s">
+        <v>521</v>
+      </c>
+      <c r="G111" t="s">
+        <v>14</v>
+      </c>
+      <c r="H111" t="s">
+        <v>15</v>
+      </c>
+      <c r="I111"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>522</v>
+      </c>
+      <c r="B112" t="s">
+        <v>523</v>
+      </c>
+      <c r="C112" t="s">
+        <v>524</v>
+      </c>
+      <c r="D112" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E112" t="s">
+        <v>525</v>
+      </c>
+      <c r="F112" t="s">
+        <v>526</v>
+      </c>
+      <c r="G112" t="s">
+        <v>14</v>
+      </c>
+      <c r="H112" t="s">
+        <v>15</v>
+      </c>
+      <c r="I112"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>527</v>
+      </c>
+      <c r="B113" t="s">
+        <v>528</v>
+      </c>
+      <c r="C113" t="s">
+        <v>504</v>
+      </c>
+      <c r="D113" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E113" t="s">
+        <v>529</v>
+      </c>
+      <c r="F113" t="s">
+        <v>530</v>
+      </c>
+      <c r="G113" t="s">
+        <v>14</v>
+      </c>
+      <c r="H113" t="s">
+        <v>15</v>
+      </c>
+      <c r="I113"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>531</v>
+      </c>
+      <c r="B114" t="s">
+        <v>532</v>
+      </c>
+      <c r="C114" t="s">
+        <v>533</v>
+      </c>
+      <c r="D114" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E114" t="s">
+        <v>534</v>
+      </c>
+      <c r="F114" t="s">
+        <v>535</v>
+      </c>
+      <c r="G114" t="s">
+        <v>14</v>
+      </c>
+      <c r="H114" t="s">
+        <v>15</v>
+      </c>
+      <c r="I114" t="s">
         <v>27</v>
       </c>
     </row>
